--- a/capiq_data/in_process_data/IQ247483.xlsx
+++ b/capiq_data/in_process_data/IQ247483.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4461E62-D64B-4AAA-873D-8E2ABC06A223}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B919515F-D5EB-486C-BD9D-E8479A661629}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"e87bf32d-9754-49cb-a29e-1ee4ab8a3db8"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"40525c96-ec1c-4b9b-8b63-fb7fb3319e8c"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>1440.847</v>
+        <v>753.399</v>
       </c>
       <c r="D2">
-        <v>9967.848</v>
+        <v>3704.69</v>
       </c>
       <c r="E2">
-        <v>7184.0339999999997</v>
+        <v>2693.6509999999998</v>
       </c>
       <c r="F2">
-        <v>5996.808</v>
+        <v>2008.25</v>
       </c>
       <c r="G2">
-        <v>22317.528999999999</v>
+        <v>7376.241</v>
       </c>
       <c r="H2">
-        <v>60573.851999999999</v>
+        <v>15283.254000000001</v>
       </c>
       <c r="I2">
-        <v>1535.759</v>
+        <v>1355.9849999999999</v>
       </c>
       <c r="J2">
-        <v>12559.517</v>
+        <v>1076.3679999999999</v>
       </c>
       <c r="K2">
-        <v>3699.7959999999998</v>
+        <v>479.45400000000001</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17262.434000000001</v>
+        <v>4297.54</v>
       </c>
       <c r="O2">
-        <v>37808.720999999998</v>
+        <v>6712.348</v>
       </c>
       <c r="P2">
-        <v>18954.282999999999</v>
+        <v>1555.8219999999999</v>
       </c>
       <c r="Q2">
-        <v>-169.774</v>
+        <v>36.103000000000002</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>90000</v>
+        <v>60571</v>
       </c>
       <c r="T2">
-        <v>22765.131000000001</v>
+        <v>8570.9060000000009</v>
       </c>
       <c r="U2">
-        <v>3648.3710000000001</v>
+        <v>914.21799999999996</v>
       </c>
       <c r="V2">
-        <v>2316.5189999999998</v>
+        <v>774.18299999999999</v>
       </c>
       <c r="W2">
-        <v>-692.101</v>
+        <v>-293.94499999999999</v>
       </c>
       <c r="X2">
-        <v>-93.313999999999993</v>
+        <v>-486.346</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-1825.268</v>
+        <v>62.33</v>
       </c>
       <c r="AA2">
-        <v>1440.847</v>
+        <v>753.399</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>863.81799999999998</v>
+        <v>-223.613</v>
       </c>
       <c r="D3">
-        <v>9040.85</v>
+        <v>3559.88</v>
       </c>
       <c r="E3">
-        <v>7160.2190000000001</v>
+        <v>2553.8139999999999</v>
       </c>
       <c r="F3">
-        <v>5230.8670000000002</v>
+        <v>1916.5619999999999</v>
       </c>
       <c r="G3">
-        <v>23647.132000000001</v>
+        <v>8191.37</v>
       </c>
       <c r="H3">
-        <v>61651.362999999998</v>
+        <v>21978.525000000001</v>
       </c>
       <c r="I3">
-        <v>1577.1679999999999</v>
+        <v>1453.288</v>
       </c>
       <c r="J3">
-        <v>12578.245999999999</v>
+        <v>1076.3720000000001</v>
       </c>
       <c r="K3">
-        <v>4078.3359999999998</v>
+        <v>5966.82</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-500.58199999999999</v>
+        <v>-8.1470000000000002</v>
       </c>
       <c r="N3">
-        <v>17225.102999999999</v>
+        <v>10888.822</v>
       </c>
       <c r="O3">
-        <v>36931.031000000003</v>
+        <v>13879.031000000001</v>
       </c>
       <c r="P3">
-        <v>18830.208999999999</v>
+        <v>7043.192</v>
       </c>
       <c r="Q3">
-        <v>-908.21500000000003</v>
+        <v>-422.02800000000002</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>24720.331999999999</v>
+        <v>8099.4939999999997</v>
       </c>
       <c r="U3">
-        <v>2740.1559999999999</v>
+        <v>492.19</v>
       </c>
       <c r="V3">
-        <v>2011.146</v>
+        <v>918.56600000000003</v>
       </c>
       <c r="W3">
-        <v>-683.96699999999998</v>
+        <v>-288.803</v>
       </c>
       <c r="X3">
-        <v>-684.33399999999995</v>
+        <v>5239.9459999999999</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-1917.221</v>
+        <v>-29.884</v>
       </c>
       <c r="AA3">
-        <v>863.81799999999998</v>
+        <v>-223.613</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>1942.7819999999999</v>
+        <v>529.048</v>
       </c>
       <c r="D4">
-        <v>9616.2909999999993</v>
+        <v>4099.1189999999997</v>
       </c>
       <c r="E4">
-        <v>7038.0690000000004</v>
+        <v>2490.8330000000001</v>
       </c>
       <c r="F4">
-        <v>5776.8190000000004</v>
+        <v>2116.0549999999998</v>
       </c>
       <c r="G4">
-        <v>24132.178</v>
+        <v>7963.5720000000001</v>
       </c>
       <c r="H4">
-        <v>62004.241000000002</v>
+        <v>22122.581999999999</v>
       </c>
       <c r="I4">
-        <v>1448.5550000000001</v>
+        <v>1517.6949999999999</v>
       </c>
       <c r="J4">
-        <v>12627.761</v>
+        <v>4310.7439999999997</v>
       </c>
       <c r="K4">
-        <v>4905.5069999999996</v>
+        <v>3242.0909999999999</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15839.928</v>
+        <v>7408.3950000000004</v>
       </c>
       <c r="O4">
-        <v>35534.538</v>
+        <v>13564.18</v>
       </c>
       <c r="P4">
-        <v>18219.111000000001</v>
+        <v>7552.835</v>
       </c>
       <c r="Q4">
-        <v>1336.8620000000001</v>
+        <v>172.55699999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>26469.703000000001</v>
+        <v>8558.402</v>
       </c>
       <c r="U4">
-        <v>4077.018</v>
+        <v>664.74699999999996</v>
       </c>
       <c r="V4">
-        <v>2503.152</v>
+        <v>576.51400000000001</v>
       </c>
       <c r="W4">
-        <v>-750.40899999999999</v>
+        <v>-330.20699999999999</v>
       </c>
       <c r="X4">
-        <v>-1386.181</v>
+        <v>284.69</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-1108.5160000000001</v>
+        <v>32.097999999999999</v>
       </c>
       <c r="AA4">
-        <v>1942.7819999999999</v>
+        <v>529.048</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>303.18099999999998</v>
+        <v>631.4</v>
       </c>
       <c r="D5">
-        <v>9816.6650000000009</v>
+        <v>4181.1850000000004</v>
       </c>
       <c r="E5">
-        <v>7043.5420000000004</v>
+        <v>2688.5360000000001</v>
       </c>
       <c r="F5">
-        <v>5843.415</v>
+        <v>2140.2860000000001</v>
       </c>
       <c r="G5">
-        <v>23094.416000000001</v>
+        <v>8170.9009999999998</v>
       </c>
       <c r="H5">
-        <v>59628.175999999999</v>
+        <v>22719.399000000001</v>
       </c>
       <c r="I5">
-        <v>1601.998</v>
+        <v>1559.357</v>
       </c>
       <c r="J5">
-        <v>13096.767</v>
+        <v>4334.1030000000001</v>
       </c>
       <c r="K5">
-        <v>2899.5630000000001</v>
+        <v>2920.2660000000001</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15413.960999999999</v>
+        <v>7781.7610000000004</v>
       </c>
       <c r="O5">
-        <v>34939.203999999998</v>
+        <v>14048.334000000001</v>
       </c>
       <c r="P5">
-        <v>16721.328000000001</v>
+        <v>7254.3689999999997</v>
       </c>
       <c r="Q5">
-        <v>972.28099999999995</v>
+        <v>-70.593999999999994</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>24688.972000000002</v>
+        <v>8671.0650000000005</v>
       </c>
       <c r="U5">
-        <v>5049.299</v>
+        <v>594.15300000000002</v>
       </c>
       <c r="V5">
-        <v>3054.43</v>
+        <v>1184.3779999999999</v>
       </c>
       <c r="W5">
-        <v>-751.63</v>
+        <v>-325.72800000000001</v>
       </c>
       <c r="X5">
-        <v>-2668.1219999999998</v>
+        <v>-682.59799999999996</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>1932.1890000000001</v>
+        <v>44.552999999999997</v>
       </c>
       <c r="AA5">
-        <v>303.18099999999998</v>
+        <v>631.4</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>1618.6679999999999</v>
+        <v>613.55499999999995</v>
       </c>
       <c r="D6">
-        <v>10377.453</v>
+        <v>4445.0619999999999</v>
       </c>
       <c r="E6">
-        <v>7683.92</v>
+        <v>3353.6410000000001</v>
       </c>
       <c r="F6">
-        <v>6563.5780000000004</v>
+        <v>2555.9609999999998</v>
       </c>
       <c r="G6">
-        <v>23768.774000000001</v>
+        <v>8419.1890000000003</v>
       </c>
       <c r="H6">
-        <v>60276.892999999996</v>
+        <v>23296.422999999999</v>
       </c>
       <c r="I6">
-        <v>1721.127</v>
+        <v>1525.2149999999999</v>
       </c>
       <c r="J6">
-        <v>12039.822</v>
+        <v>4335.4930000000004</v>
       </c>
       <c r="K6">
-        <v>1667.8589999999999</v>
+        <v>2950.9560000000001</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15480.227999999999</v>
+        <v>7926.817</v>
       </c>
       <c r="O6">
-        <v>35750.748</v>
+        <v>14236.991</v>
       </c>
       <c r="P6">
-        <v>15414.576999999999</v>
+        <v>7288.8280000000004</v>
       </c>
       <c r="Q6">
-        <v>1763.521</v>
+        <v>63.225000000000001</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>91000</v>
+        <v>71426</v>
       </c>
       <c r="T6">
-        <v>24526.145</v>
+        <v>9059.4320000000007</v>
       </c>
       <c r="U6">
-        <v>6812.82</v>
+        <v>657.37800000000004</v>
       </c>
       <c r="V6">
-        <v>1401.3489999999999</v>
+        <v>887.39</v>
       </c>
       <c r="W6">
-        <v>-752.09</v>
+        <v>-326.04399999999998</v>
       </c>
       <c r="X6">
-        <v>-1284.818</v>
+        <v>-218.22200000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1632.2809999999999</v>
+        <v>82.775999999999996</v>
       </c>
       <c r="AA6">
-        <v>1618.6679999999999</v>
+        <v>613.55499999999995</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>1242.124</v>
+        <v>854.28</v>
       </c>
       <c r="D7">
-        <v>5283.6850000000004</v>
+        <v>4189.2889999999998</v>
       </c>
       <c r="E7">
-        <v>7659.8819999999996</v>
+        <v>2644.357</v>
       </c>
       <c r="F7">
-        <v>2924.5210000000002</v>
+        <v>2293.212</v>
       </c>
       <c r="G7">
-        <v>25602.131000000001</v>
+        <v>8075.5209999999997</v>
       </c>
       <c r="H7">
-        <v>62415.800999999999</v>
+        <v>22765.776000000002</v>
       </c>
       <c r="I7">
-        <v>1726.962</v>
+        <v>1017.189</v>
       </c>
       <c r="J7">
-        <v>11861.504999999999</v>
+        <v>4324.3</v>
       </c>
       <c r="K7">
-        <v>3112.8589999999999</v>
+        <v>2576.1019999999999</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-390</v>
       </c>
       <c r="M7">
-        <v>-54</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>16785.922999999999</v>
+        <v>6952.07</v>
       </c>
       <c r="O7">
-        <v>36872.366999999998</v>
+        <v>13319.973</v>
       </c>
       <c r="P7">
-        <v>16646.939999999999</v>
+        <v>6900.402</v>
       </c>
       <c r="Q7">
-        <v>-2466.91</v>
+        <v>287.60500000000002</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>25543.434000000001</v>
+        <v>9445.8029999999999</v>
       </c>
       <c r="U7">
-        <v>4345.91</v>
+        <v>944.98299999999995</v>
       </c>
       <c r="V7">
-        <v>2224.9299999999998</v>
+        <v>1163.6130000000001</v>
       </c>
       <c r="W7">
-        <v>-758.548</v>
+        <v>-326.59800000000001</v>
       </c>
       <c r="X7">
-        <v>165.22499999999999</v>
+        <v>-605.23500000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-3899.5839999999998</v>
+        <v>23.343</v>
       </c>
       <c r="AA7">
-        <v>1242.124</v>
+        <v>854.28</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>1724.6120000000001</v>
+        <v>592.26499999999999</v>
       </c>
       <c r="D8">
-        <v>5313.2969999999996</v>
+        <v>4314.8890000000001</v>
       </c>
       <c r="E8">
-        <v>6767.9520000000002</v>
+        <v>2826.9960000000001</v>
       </c>
       <c r="F8">
-        <v>2943.241</v>
+        <v>2148.299</v>
       </c>
       <c r="G8">
-        <v>26257.491999999998</v>
+        <v>8010.0450000000001</v>
       </c>
       <c r="H8">
-        <v>61859.79</v>
+        <v>23053.100999999999</v>
       </c>
       <c r="I8">
-        <v>1519.46</v>
+        <v>1043.758</v>
       </c>
       <c r="J8">
-        <v>12004.092000000001</v>
+        <v>4400.7860000000001</v>
       </c>
       <c r="K8">
-        <v>4393.5249999999996</v>
+        <v>2390.9090000000001</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17120.467000000001</v>
+        <v>6868.299</v>
       </c>
       <c r="O8">
-        <v>37287.305</v>
+        <v>13164.305</v>
       </c>
       <c r="P8">
-        <v>18087.014999999999</v>
+        <v>6791.6949999999997</v>
       </c>
       <c r="Q8">
-        <v>2706.866</v>
+        <v>-462.846</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>24572.485000000001</v>
+        <v>9888.7960000000003</v>
       </c>
       <c r="U8">
-        <v>7052.7759999999998</v>
+        <v>482.137</v>
       </c>
       <c r="V8">
-        <v>2066.8290000000002</v>
+        <v>918.86900000000003</v>
       </c>
       <c r="W8">
-        <v>-806.98400000000004</v>
+        <v>-366.923</v>
       </c>
       <c r="X8">
-        <v>115.367</v>
+        <v>-552.55600000000004</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>1222.327</v>
+        <v>-26.283000000000001</v>
       </c>
       <c r="AA8">
-        <v>1724.6120000000001</v>
+        <v>592.26499999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>1942.8030000000001</v>
+        <v>720.05100000000004</v>
       </c>
       <c r="D9">
-        <v>5264.7870000000003</v>
+        <v>4341.2359999999999</v>
       </c>
       <c r="E9">
-        <v>6948.7139999999999</v>
+        <v>2865.6990000000001</v>
       </c>
       <c r="F9">
-        <v>2845.8739999999998</v>
+        <v>2273.7420000000002</v>
       </c>
       <c r="G9">
-        <v>27264.243999999999</v>
+        <v>8484.1489999999994</v>
       </c>
       <c r="H9">
-        <v>63257.737999999998</v>
+        <v>23660.355</v>
       </c>
       <c r="I9">
-        <v>1605.202</v>
+        <v>887.80200000000002</v>
       </c>
       <c r="J9">
-        <v>12054.64</v>
+        <v>4455.9470000000001</v>
       </c>
       <c r="K9">
-        <v>2521.1469999999999</v>
+        <v>2480.9470000000001</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16285.977999999999</v>
+        <v>6717.2079999999996</v>
       </c>
       <c r="O9">
-        <v>36153.396999999997</v>
+        <v>13113.182000000001</v>
       </c>
       <c r="P9">
-        <v>16279.630999999999</v>
+        <v>6936.8940000000002</v>
       </c>
       <c r="Q9">
-        <v>944.17200000000003</v>
+        <v>260.51100000000002</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>27104.341</v>
+        <v>10547.173000000001</v>
       </c>
       <c r="U9">
-        <v>7996.9480000000003</v>
+        <v>742.64800000000002</v>
       </c>
       <c r="V9">
-        <v>3519.502</v>
+        <v>900.93299999999999</v>
       </c>
       <c r="W9">
-        <v>-805.40499999999997</v>
+        <v>-367.13299999999998</v>
       </c>
       <c r="X9">
-        <v>-2590.9569999999999</v>
+        <v>-270.512</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>431.07400000000001</v>
+        <v>-35.759</v>
       </c>
       <c r="AA9">
-        <v>1942.806</v>
+        <v>720.05100000000004</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>1053.461</v>
+        <v>627.10699999999997</v>
       </c>
       <c r="D10">
-        <v>5632.2309999999998</v>
+        <v>4839.2489999999998</v>
       </c>
       <c r="E10">
-        <v>7613</v>
+        <v>3613.2179999999998</v>
       </c>
       <c r="F10">
-        <v>3033.364</v>
+        <v>2546.1559999999999</v>
       </c>
       <c r="G10">
-        <v>31323</v>
+        <v>9121.7720000000008</v>
       </c>
       <c r="H10">
-        <v>67235</v>
+        <v>24259.101999999999</v>
       </c>
       <c r="I10">
-        <v>1797</v>
+        <v>1661.65</v>
       </c>
       <c r="J10">
-        <v>18085</v>
+        <v>4273.973</v>
       </c>
       <c r="K10">
-        <v>1467</v>
+        <v>1927.5429999999999</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,134 +1556,134 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13280</v>
+        <v>7002.2020000000002</v>
       </c>
       <c r="O10">
-        <v>40422</v>
+        <v>13594.549000000001</v>
       </c>
       <c r="P10">
-        <v>20476</v>
+        <v>6422.6270000000004</v>
       </c>
       <c r="Q10">
-        <v>2804.8719999999998</v>
+        <v>-38.198</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>91000</v>
+        <v>71819</v>
       </c>
       <c r="T10">
-        <v>26813</v>
+        <v>10664.553</v>
       </c>
       <c r="U10">
-        <v>10802</v>
+        <v>704.45</v>
       </c>
       <c r="V10">
-        <v>1502.739</v>
+        <v>1199.529</v>
       </c>
       <c r="W10">
-        <v>-812.06299999999999</v>
+        <v>-367.19600000000003</v>
       </c>
       <c r="X10">
-        <v>2505.3649999999998</v>
+        <v>-881.67100000000005</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-815.81700000000001</v>
+        <v>22.905000000000001</v>
       </c>
       <c r="AA10">
-        <v>1053.461</v>
+        <v>627.10699999999997</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>544</v>
+        <v>800.98099999999999</v>
       </c>
       <c r="D11">
-        <v>5378</v>
+        <v>4008.9409999999998</v>
       </c>
       <c r="E11">
-        <v>3917.8649999999998</v>
+        <v>2763.1979999999999</v>
       </c>
       <c r="F11">
-        <v>2946</v>
+        <v>2209.0239999999999</v>
       </c>
       <c r="G11">
-        <v>19096.867999999999</v>
+        <v>9431.4459999999999</v>
       </c>
       <c r="H11">
-        <v>42686.612999999998</v>
+        <v>24882.58</v>
       </c>
       <c r="I11">
-        <v>1087.979</v>
+        <v>1618.432</v>
       </c>
       <c r="J11">
-        <v>3466.576</v>
+        <v>4269.7280000000001</v>
       </c>
       <c r="K11">
-        <v>2793.2550000000001</v>
+        <v>1996.03</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-597</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10406.325999999999</v>
+        <v>6944.3329999999996</v>
       </c>
       <c r="O11">
-        <v>20003.338</v>
+        <v>13511.173000000001</v>
       </c>
       <c r="P11">
-        <v>7102.4260000000004</v>
+        <v>6469.5169999999998</v>
       </c>
       <c r="Q11">
-        <v>-6429</v>
+        <v>316.03399999999999</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>22683.275000000001</v>
+        <v>11371.406999999999</v>
       </c>
       <c r="U11">
-        <v>4373.12</v>
+        <v>1020.484</v>
       </c>
       <c r="V11">
-        <v>460</v>
+        <v>943.01599999999996</v>
       </c>
       <c r="W11">
-        <v>-224</v>
+        <v>-367.35300000000001</v>
       </c>
       <c r="X11">
-        <v>-4733</v>
+        <v>-409.17599999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-1834</v>
+        <v>12.457000000000001</v>
       </c>
       <c r="AA11">
-        <v>545</v>
+        <v>800.98099999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -1572,28 +1692,28 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>4126.259</v>
       </c>
       <c r="E12">
-        <v>3938.998</v>
+        <v>2834.1759999999999</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2277.8780000000002</v>
       </c>
       <c r="G12">
-        <v>19831.124</v>
+        <v>9714.7960000000003</v>
       </c>
       <c r="H12">
-        <v>42903.345999999998</v>
+        <v>25890.853999999999</v>
       </c>
       <c r="I12">
-        <v>1042.248</v>
+        <v>1487.9559999999999</v>
       </c>
       <c r="J12">
-        <v>3410.759</v>
+        <v>4316.4049999999997</v>
       </c>
       <c r="K12">
-        <v>3719.614</v>
+        <v>1616.5630000000001</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,28 +1722,28 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10919.614</v>
+        <v>7333.1570000000002</v>
       </c>
       <c r="O12">
-        <v>20475.7</v>
+        <v>13998.018</v>
       </c>
       <c r="P12">
-        <v>7934.5370000000003</v>
+        <v>6144.5249999999996</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>22427.646000000001</v>
+        <v>11892.835999999999</v>
       </c>
       <c r="U12">
-        <v>5572.2539999999999</v>
+        <v>1078.9069999999999</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>246.643</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>966</v>
+        <v>761.21699999999998</v>
       </c>
       <c r="D13">
-        <v>4825</v>
+        <v>4247.8549999999996</v>
       </c>
       <c r="E13">
-        <v>3882.8029999999999</v>
+        <v>2882.0250000000001</v>
       </c>
       <c r="F13">
-        <v>2570</v>
+        <v>2319.0590000000002</v>
       </c>
       <c r="G13">
-        <v>19748.949000000001</v>
+        <v>10260.878000000001</v>
       </c>
       <c r="H13">
-        <v>44132.476999999999</v>
+        <v>26154.769</v>
       </c>
       <c r="I13">
-        <v>1008.912</v>
+        <v>1318.1959999999999</v>
       </c>
       <c r="J13">
-        <v>3403.069</v>
+        <v>3908.3139999999999</v>
       </c>
       <c r="K13">
-        <v>4055.8670000000002</v>
+        <v>803.774</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11331.665000000001</v>
+        <v>8039.1329999999998</v>
       </c>
       <c r="O13">
-        <v>20344.545999999998</v>
+        <v>14289.982</v>
       </c>
       <c r="P13">
-        <v>8262.9449999999997</v>
+        <v>6627.4570000000003</v>
       </c>
       <c r="Q13">
-        <v>-2690</v>
+        <v>603.03</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>23787.931</v>
+        <v>11864.787</v>
       </c>
       <c r="U13">
-        <v>2882.4540000000002</v>
+        <v>1681.9369999999999</v>
       </c>
       <c r="V13">
-        <v>522</v>
+        <v>1035.511</v>
       </c>
       <c r="W13">
-        <v>-220</v>
+        <v>-382.84899999999999</v>
       </c>
       <c r="X13">
-        <v>-559</v>
+        <v>59.43</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-1873</v>
+        <v>33.527000000000001</v>
       </c>
       <c r="AA13">
-        <v>966</v>
+        <v>761.21699999999998</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>589</v>
+        <v>944.39200000000005</v>
       </c>
       <c r="D14">
-        <v>5014</v>
+        <v>4897.2780000000002</v>
       </c>
       <c r="E14">
-        <v>3986</v>
+        <v>3313.377</v>
       </c>
       <c r="F14">
-        <v>2700</v>
+        <v>2788.1329999999998</v>
       </c>
       <c r="G14">
-        <v>19247</v>
+        <v>9614.3809999999994</v>
       </c>
       <c r="H14">
-        <v>42953</v>
+        <v>26039.308000000001</v>
       </c>
       <c r="I14">
-        <v>1026</v>
+        <v>1078.3330000000001</v>
       </c>
       <c r="J14">
-        <v>3388</v>
+        <v>3452.3290000000002</v>
       </c>
       <c r="K14">
-        <v>2659</v>
+        <v>828.09199999999998</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9507</v>
+        <v>6963.5010000000002</v>
       </c>
       <c r="O14">
-        <v>17686</v>
+        <v>12967.05</v>
       </c>
       <c r="P14">
-        <v>6561</v>
+        <v>5989.6859999999997</v>
       </c>
       <c r="Q14">
-        <v>593</v>
+        <v>-686.81299999999999</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>69000</v>
+        <v>72200</v>
       </c>
       <c r="T14">
-        <v>25267</v>
+        <v>13072.258</v>
       </c>
       <c r="U14">
-        <v>3475</v>
+        <v>995.12400000000002</v>
       </c>
       <c r="V14">
-        <v>1625</v>
+        <v>578.96500000000003</v>
       </c>
       <c r="W14">
-        <v>-218</v>
+        <v>-383.03800000000001</v>
       </c>
       <c r="X14">
-        <v>-1869</v>
+        <v>-897.94500000000005</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>1155</v>
+        <v>-204.47900000000001</v>
       </c>
       <c r="AA14">
-        <v>589</v>
+        <v>944.39200000000005</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>375</v>
+        <v>822.90899999999999</v>
       </c>
       <c r="D15">
-        <v>4755</v>
+        <v>4640.8549999999996</v>
       </c>
       <c r="E15">
-        <v>3883</v>
+        <v>3200.5929999999998</v>
       </c>
       <c r="F15">
-        <v>2481</v>
+        <v>2567.433</v>
       </c>
       <c r="G15">
-        <v>17931</v>
+        <v>10942.822</v>
       </c>
       <c r="H15">
-        <v>41662</v>
+        <v>28053.332999999999</v>
       </c>
       <c r="I15">
-        <v>1074</v>
+        <v>1574.94</v>
       </c>
       <c r="J15">
-        <v>3387</v>
+        <v>4957.2529999999997</v>
       </c>
       <c r="K15">
-        <v>3854</v>
+        <v>45.003999999999998</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-781</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>-26.213999999999999</v>
       </c>
       <c r="N15">
-        <v>10186</v>
+        <v>6953.9709999999995</v>
       </c>
       <c r="O15">
-        <v>18173</v>
+        <v>14541.290999999999</v>
       </c>
       <c r="P15">
-        <v>7765</v>
+        <v>6684.848</v>
       </c>
       <c r="Q15">
-        <v>-1415</v>
+        <v>128.86000000000001</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>23489</v>
+        <v>13512.041999999999</v>
       </c>
       <c r="U15">
-        <v>2060</v>
+        <v>1123.9839999999999</v>
       </c>
       <c r="V15">
-        <v>336</v>
+        <v>1296.241</v>
       </c>
       <c r="W15">
-        <v>-343</v>
+        <v>-383.37799999999999</v>
       </c>
       <c r="X15">
-        <v>-1152</v>
+        <v>45.338999999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-367</v>
+        <v>-575.77099999999996</v>
       </c>
       <c r="AA15">
-        <v>375</v>
+        <v>822.90899999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>466</v>
+        <v>634.25800000000004</v>
       </c>
       <c r="D16">
-        <v>5057</v>
+        <v>4703.049</v>
       </c>
       <c r="E16">
-        <v>4056</v>
+        <v>2861.1849999999999</v>
       </c>
       <c r="F16">
-        <v>2769</v>
+        <v>2634.3270000000002</v>
       </c>
       <c r="G16">
-        <v>18258</v>
+        <v>10502.96</v>
       </c>
       <c r="H16">
-        <v>41475</v>
+        <v>27686.181</v>
       </c>
       <c r="I16">
-        <v>1062</v>
+        <v>1485.6289999999999</v>
       </c>
       <c r="J16">
-        <v>3403</v>
+        <v>4686.7120000000004</v>
       </c>
       <c r="K16">
-        <v>3430</v>
+        <v>448.10599999999999</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9853</v>
+        <v>7624.0230000000001</v>
       </c>
       <c r="O16">
-        <v>17771</v>
+        <v>14860.315000000001</v>
       </c>
       <c r="P16">
-        <v>7365</v>
+        <v>6966.835</v>
       </c>
       <c r="Q16">
-        <v>1510</v>
+        <v>107.589</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>23704</v>
+        <v>12825.866</v>
       </c>
       <c r="U16">
-        <v>3570</v>
+        <v>1231.5730000000001</v>
       </c>
       <c r="V16">
-        <v>900</v>
+        <v>1443.317</v>
       </c>
       <c r="W16">
-        <v>-333</v>
+        <v>-405.53100000000001</v>
       </c>
       <c r="X16">
-        <v>-619</v>
+        <v>724.221</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>1486</v>
+        <v>-182.34700000000001</v>
       </c>
       <c r="AA16">
-        <v>466</v>
+        <v>634.25800000000004</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>539</v>
+        <v>804.07899999999995</v>
       </c>
       <c r="D17">
-        <v>5079</v>
+        <v>4681.6689999999999</v>
       </c>
       <c r="E17">
-        <v>3618</v>
+        <v>2945.8939999999998</v>
       </c>
       <c r="F17">
-        <v>2760</v>
+        <v>2566.75</v>
       </c>
       <c r="G17">
-        <v>16464</v>
+        <v>10216.003000000001</v>
       </c>
       <c r="H17">
-        <v>42514</v>
+        <v>27564.225999999999</v>
       </c>
       <c r="I17">
-        <v>965</v>
+        <v>1597.8009999999999</v>
       </c>
       <c r="J17">
-        <v>3719</v>
+        <v>4728.47</v>
       </c>
       <c r="K17">
-        <v>3891</v>
+        <v>1696.7159999999999</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10823</v>
+        <v>7295.4570000000003</v>
       </c>
       <c r="O17">
-        <v>19521</v>
+        <v>14608.882</v>
       </c>
       <c r="P17">
-        <v>8301</v>
+        <v>6581.6689999999999</v>
       </c>
       <c r="Q17">
-        <v>43</v>
+        <v>-420.68200000000002</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>22993</v>
+        <v>12955.343999999999</v>
       </c>
       <c r="U17">
-        <v>3613</v>
+        <v>810.89099999999996</v>
       </c>
       <c r="V17">
-        <v>1201</v>
+        <v>865.78200000000004</v>
       </c>
       <c r="W17">
-        <v>-331</v>
+        <v>-405.911</v>
       </c>
       <c r="X17">
-        <v>-271</v>
+        <v>-995.04700000000003</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>2239</v>
+        <v>100.072</v>
       </c>
       <c r="AA17">
-        <v>538</v>
+        <v>804.07899999999995</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>904</v>
+        <v>974.60500000000002</v>
       </c>
       <c r="D18">
-        <v>5356</v>
+        <v>5654.4430000000002</v>
       </c>
       <c r="E18">
-        <v>3586</v>
+        <v>3696.1149999999998</v>
       </c>
       <c r="F18">
-        <v>3046</v>
+        <v>3027.3490000000002</v>
       </c>
       <c r="G18">
-        <v>13556</v>
+        <v>10734.485000000001</v>
       </c>
       <c r="H18">
-        <v>41207</v>
+        <v>28767.493999999999</v>
       </c>
       <c r="I18">
-        <v>1064</v>
+        <v>1054.4639999999999</v>
       </c>
       <c r="J18">
-        <v>3393</v>
+        <v>4787.9340000000002</v>
       </c>
       <c r="K18">
-        <v>3937</v>
+        <v>1836.6489999999999</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10467</v>
+        <v>6825.6440000000002</v>
       </c>
       <c r="O18">
-        <v>19568</v>
+        <v>14441.710999999999</v>
       </c>
       <c r="P18">
-        <v>7830</v>
+        <v>6780.6170000000002</v>
       </c>
       <c r="Q18">
-        <v>450</v>
+        <v>414.73700000000002</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>77000</v>
+        <v>60600</v>
       </c>
       <c r="T18">
-        <v>21639</v>
+        <v>14325.782999999999</v>
       </c>
       <c r="U18">
-        <v>4063</v>
+        <v>1225.6279999999999</v>
       </c>
       <c r="V18">
-        <v>1238</v>
+        <v>861.69100000000003</v>
       </c>
       <c r="W18">
-        <v>-335</v>
+        <v>-404.95</v>
       </c>
       <c r="X18">
-        <v>-700</v>
+        <v>-212.833</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>759</v>
+        <v>339.67700000000002</v>
       </c>
       <c r="AA18">
-        <v>904</v>
+        <v>974.60500000000002</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>2292</v>
+        <v>837.88800000000003</v>
       </c>
       <c r="D19">
-        <v>4897</v>
+        <v>5382.6790000000001</v>
       </c>
       <c r="E19">
-        <v>3481</v>
+        <v>3537.511</v>
       </c>
       <c r="F19">
-        <v>2816</v>
+        <v>2860.1480000000001</v>
       </c>
       <c r="G19">
-        <v>19985</v>
+        <v>10351.123</v>
       </c>
       <c r="H19">
-        <v>43095</v>
+        <v>28857.214</v>
       </c>
       <c r="I19">
-        <v>1012</v>
+        <v>986.64300000000003</v>
       </c>
       <c r="J19">
-        <v>5931</v>
+        <v>4697.835</v>
       </c>
       <c r="K19">
-        <v>2479</v>
+        <v>2322.9969999999998</v>
       </c>
       <c r="L19">
-        <v>-1471</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>9206</v>
+        <v>7367.9780000000001</v>
       </c>
       <c r="O19">
-        <v>21107</v>
+        <v>14679.665999999999</v>
       </c>
       <c r="P19">
-        <v>8903</v>
+        <v>7176.0429999999997</v>
       </c>
       <c r="Q19">
-        <v>-837</v>
+        <v>477.75900000000001</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>21988</v>
+        <v>14177.548000000001</v>
       </c>
       <c r="U19">
-        <v>3226</v>
+        <v>1703.3869999999999</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>533.72699999999998</v>
       </c>
       <c r="W19">
-        <v>-364</v>
+        <v>-405.74</v>
       </c>
       <c r="X19">
-        <v>-550</v>
+        <v>-430.72</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-213</v>
+        <v>723.60400000000004</v>
       </c>
       <c r="AA19">
-        <v>2292</v>
+        <v>837.88800000000003</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>784</v>
+        <v>877.05200000000002</v>
       </c>
       <c r="D20">
-        <v>5170</v>
+        <v>5523.8</v>
       </c>
       <c r="E20">
-        <v>3553</v>
+        <v>3345.248</v>
       </c>
       <c r="F20">
-        <v>2952</v>
+        <v>2891.9650000000001</v>
       </c>
       <c r="G20">
-        <v>21131</v>
+        <v>9663.2489999999998</v>
       </c>
       <c r="H20">
-        <v>44125</v>
+        <v>27817.213</v>
       </c>
       <c r="I20">
-        <v>1000</v>
+        <v>942.6</v>
       </c>
       <c r="J20">
-        <v>5879</v>
+        <v>4720.0730000000003</v>
       </c>
       <c r="K20">
-        <v>2436</v>
+        <v>1012.682</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9185</v>
+        <v>6083.0309999999999</v>
       </c>
       <c r="O20">
-        <v>20999</v>
+        <v>13435.302</v>
       </c>
       <c r="P20">
-        <v>8778</v>
+        <v>5737.0190000000002</v>
       </c>
       <c r="Q20">
-        <v>822</v>
+        <v>-256.173</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>23126</v>
+        <v>14381.911</v>
       </c>
       <c r="U20">
-        <v>4048</v>
+        <v>1447.2139999999999</v>
       </c>
       <c r="V20">
-        <v>941</v>
+        <v>1864.53</v>
       </c>
       <c r="W20">
-        <v>-360</v>
+        <v>-426.57900000000001</v>
       </c>
       <c r="X20">
-        <v>-374</v>
+        <v>-1771.126</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-1843</v>
+        <v>22.936</v>
       </c>
       <c r="AA20">
-        <v>784</v>
+        <v>877.05200000000002</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>580</v>
+        <v>680.70899999999995</v>
       </c>
       <c r="D21">
-        <v>5150</v>
+        <v>5383.9949999999999</v>
       </c>
       <c r="E21">
-        <v>3460</v>
+        <v>3203.038</v>
       </c>
       <c r="F21">
-        <v>2908</v>
+        <v>2706.8069999999998</v>
       </c>
       <c r="G21">
-        <v>15894</v>
+        <v>10988.679</v>
       </c>
       <c r="H21">
-        <v>41725</v>
+        <v>28830.958999999999</v>
       </c>
       <c r="I21">
-        <v>1007</v>
+        <v>1030.356</v>
       </c>
       <c r="J21">
-        <v>5953</v>
+        <v>3049.1689999999999</v>
       </c>
       <c r="K21">
-        <v>1928</v>
+        <v>1926.826</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>8755</v>
+        <v>8758.5149999999994</v>
       </c>
       <c r="O21">
-        <v>20506</v>
+        <v>14567.928</v>
       </c>
       <c r="P21">
-        <v>8355</v>
+        <v>6582.3990000000003</v>
       </c>
       <c r="Q21">
-        <v>-916</v>
+        <v>1397.7929999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>21219</v>
+        <v>14263.031000000001</v>
       </c>
       <c r="U21">
-        <v>3132</v>
+        <v>2845.0070000000001</v>
       </c>
       <c r="V21">
-        <v>1195</v>
+        <v>1424.9110000000001</v>
       </c>
       <c r="W21">
-        <v>-359</v>
+        <v>-427.53699999999998</v>
       </c>
       <c r="X21">
-        <v>-815</v>
+        <v>299.78699999999998</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-570</v>
+        <v>4.9690000000000003</v>
       </c>
       <c r="AA21">
-        <v>580</v>
+        <v>680.70899999999995</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>767</v>
+        <v>976.41600000000005</v>
       </c>
       <c r="D22">
-        <v>5188</v>
+        <v>6047.3339999999998</v>
       </c>
       <c r="E22">
-        <v>3418</v>
+        <v>3576.7939999999999</v>
       </c>
       <c r="F22">
-        <v>3009</v>
+        <v>3411.777</v>
       </c>
       <c r="G22">
-        <v>14155</v>
+        <v>11386.028</v>
       </c>
       <c r="H22">
-        <v>41247</v>
+        <v>29141.203000000001</v>
       </c>
       <c r="I22">
-        <v>1081</v>
+        <v>1032.5160000000001</v>
       </c>
       <c r="J22">
-        <v>5871</v>
+        <v>4571.5039999999999</v>
       </c>
       <c r="K22">
-        <v>2688</v>
+        <v>212.447</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9186</v>
+        <v>7415.5140000000001</v>
       </c>
       <c r="O22">
-        <v>19921</v>
+        <v>14725.932000000001</v>
       </c>
       <c r="P22">
-        <v>9001</v>
+        <v>6633.5140000000001</v>
       </c>
       <c r="Q22">
-        <v>1869</v>
+        <v>48.68</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>74000</v>
+        <v>59735</v>
       </c>
       <c r="T22">
-        <v>21326</v>
+        <v>14415.271000000001</v>
       </c>
       <c r="U22">
-        <v>5001</v>
+        <v>2893.6869999999999</v>
       </c>
       <c r="V22">
-        <v>828</v>
+        <v>1351.248</v>
       </c>
       <c r="W22">
-        <v>-360</v>
+        <v>-426.61599999999999</v>
       </c>
       <c r="X22">
-        <v>-497</v>
+        <v>-690.25699999999995</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>1805</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="AA22">
-        <v>767</v>
+        <v>976.41600000000005</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>316</v>
+        <v>864.88300000000004</v>
       </c>
       <c r="D23">
-        <v>4885</v>
+        <v>5183.4589999999998</v>
       </c>
       <c r="E23">
-        <v>3430</v>
+        <v>3342.6370000000002</v>
       </c>
       <c r="F23">
-        <v>2745</v>
+        <v>3013.7550000000001</v>
       </c>
       <c r="G23">
-        <v>12406</v>
+        <v>10608.832</v>
       </c>
       <c r="H23">
-        <v>39637</v>
+        <v>28531.5</v>
       </c>
       <c r="I23">
-        <v>1053</v>
+        <v>930.82100000000003</v>
       </c>
       <c r="J23">
-        <v>5977</v>
+        <v>4151.7759999999998</v>
       </c>
       <c r="K23">
-        <v>2139</v>
+        <v>292.36</v>
       </c>
       <c r="L23">
-        <v>-583</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-7</v>
+        <v>-425</v>
       </c>
       <c r="N23">
-        <v>8393</v>
+        <v>7160.54</v>
       </c>
       <c r="O23">
-        <v>18795</v>
+        <v>14089.355</v>
       </c>
       <c r="P23">
-        <v>8590</v>
+        <v>6292.6149999999998</v>
       </c>
       <c r="Q23">
-        <v>-1667</v>
+        <v>-550.59100000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>20842</v>
+        <v>14442.145</v>
       </c>
       <c r="U23">
-        <v>3334</v>
+        <v>2343.096</v>
       </c>
       <c r="V23">
-        <v>-93</v>
+        <v>1183.1189999999999</v>
       </c>
       <c r="W23">
-        <v>-385</v>
+        <v>-423.55099999999999</v>
       </c>
       <c r="X23">
-        <v>-1432</v>
+        <v>-1450.3979999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>446</v>
+        <v>2.419</v>
       </c>
       <c r="AA23">
-        <v>316</v>
+        <v>864.88300000000004</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>615</v>
+        <v>612.24400000000003</v>
       </c>
       <c r="D24">
-        <v>5333</v>
+        <v>5501.1239999999998</v>
       </c>
       <c r="E24">
-        <v>3567</v>
+        <v>3673.1779999999999</v>
       </c>
       <c r="F24">
-        <v>3046</v>
+        <v>3112.511</v>
       </c>
       <c r="G24">
-        <v>12988</v>
+        <v>9897.7849999999999</v>
       </c>
       <c r="H24">
-        <v>39831</v>
+        <v>34061.267</v>
       </c>
       <c r="I24">
-        <v>1153</v>
+        <v>1036.931</v>
       </c>
       <c r="J24">
-        <v>6016</v>
+        <v>8174.6949999999997</v>
       </c>
       <c r="K24">
-        <v>2376</v>
+        <v>309.20299999999997</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>8673</v>
+        <v>7694.1840000000002</v>
       </c>
       <c r="O24">
-        <v>19036</v>
+        <v>18875.760999999999</v>
       </c>
       <c r="P24">
-        <v>8912</v>
+        <v>10426.473</v>
       </c>
       <c r="Q24">
-        <v>-756</v>
+        <v>-1552.194</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>20795</v>
+        <v>15185.505999999999</v>
       </c>
       <c r="U24">
-        <v>2578</v>
+        <v>790.90200000000004</v>
       </c>
       <c r="V24">
-        <v>909</v>
+        <v>1572.69</v>
       </c>
       <c r="W24">
-        <v>-384</v>
+        <v>-450.065</v>
       </c>
       <c r="X24">
-        <v>-179</v>
+        <v>3644.41</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-1246</v>
+        <v>-2098.1990000000001</v>
       </c>
       <c r="AA24">
-        <v>615</v>
+        <v>612.24400000000003</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>-329</v>
+        <v>715.84199999999998</v>
       </c>
       <c r="D25">
-        <v>5302</v>
+        <v>5573.77</v>
       </c>
       <c r="E25">
-        <v>3320</v>
+        <v>3577.7289999999998</v>
       </c>
       <c r="F25">
-        <v>3017</v>
+        <v>3182.5520000000001</v>
       </c>
       <c r="G25">
-        <v>12978</v>
+        <v>10070.578</v>
       </c>
       <c r="H25">
-        <v>39497</v>
+        <v>33299.872000000003</v>
       </c>
       <c r="I25">
-        <v>1051</v>
+        <v>995.34</v>
       </c>
       <c r="J25">
-        <v>5975</v>
+        <v>7508.1989999999996</v>
       </c>
       <c r="K25">
-        <v>2009</v>
+        <v>1593.1089999999999</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>8321</v>
+        <v>7434.0010000000002</v>
       </c>
       <c r="O25">
-        <v>18601</v>
+        <v>17666.471000000001</v>
       </c>
       <c r="P25">
-        <v>8510</v>
+        <v>9445.3320000000003</v>
       </c>
       <c r="Q25">
-        <v>-78</v>
+        <v>-264.53199999999998</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>20896</v>
+        <v>15633.401</v>
       </c>
       <c r="U25">
-        <v>2500</v>
+        <v>526.37</v>
       </c>
       <c r="V25">
-        <v>1217</v>
+        <v>1284.8889999999999</v>
       </c>
       <c r="W25">
-        <v>-384</v>
+        <v>-450.75200000000001</v>
       </c>
       <c r="X25">
-        <v>-746</v>
+        <v>-1185.174</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-182</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>-329</v>
+        <v>715.84199999999998</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>798</v>
+        <v>-476.214</v>
       </c>
       <c r="D26">
-        <v>5333</v>
+        <v>6217.9690000000001</v>
       </c>
       <c r="E26">
-        <v>3248</v>
+        <v>4231.1419999999998</v>
       </c>
       <c r="F26">
-        <v>3030</v>
+        <v>3533.357</v>
       </c>
       <c r="G26">
-        <v>26776</v>
+        <v>11281.883</v>
       </c>
       <c r="H26">
-        <v>52666</v>
+        <v>36178.171999999999</v>
       </c>
       <c r="I26">
-        <v>1178</v>
+        <v>1175.5899999999999</v>
       </c>
       <c r="J26">
-        <v>20681</v>
+        <v>7009.6639999999998</v>
       </c>
       <c r="K26">
-        <v>868</v>
+        <v>5305.9849999999997</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>6660</v>
+        <v>11951.195</v>
       </c>
       <c r="O26">
-        <v>31949</v>
+        <v>22123.986000000001</v>
       </c>
       <c r="P26">
-        <v>22006</v>
+        <v>12410.924999999999</v>
       </c>
       <c r="Q26">
-        <v>16120</v>
+        <v>-5.1779999999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>75000</v>
+        <v>66663</v>
       </c>
       <c r="T26">
-        <v>20717</v>
+        <v>14054.186</v>
       </c>
       <c r="U26">
-        <v>18620</v>
+        <v>521.19200000000001</v>
       </c>
       <c r="V26">
-        <v>1170</v>
+        <v>1288.5429999999999</v>
       </c>
       <c r="W26">
-        <v>-386</v>
+        <v>-452.80200000000002</v>
       </c>
       <c r="X26">
-        <v>13504</v>
+        <v>2613.0889999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>1868</v>
+        <v>-15.156000000000001</v>
       </c>
       <c r="AA26">
-        <v>798</v>
+        <v>-476.214</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>419</v>
+        <v>697.53700000000003</v>
       </c>
       <c r="D27">
-        <v>6335</v>
+        <v>5945.5609999999997</v>
       </c>
       <c r="E27">
-        <v>4510</v>
+        <v>3278.2829999999999</v>
       </c>
       <c r="F27">
-        <v>4095</v>
+        <v>3353.55</v>
       </c>
       <c r="G27">
-        <v>19329</v>
+        <v>11504.217000000001</v>
       </c>
       <c r="H27">
-        <v>70887</v>
+        <v>36286.116999999998</v>
       </c>
       <c r="I27">
-        <v>1481</v>
+        <v>987.51400000000001</v>
       </c>
       <c r="J27">
-        <v>23856</v>
+        <v>6541.1689999999999</v>
       </c>
       <c r="K27">
-        <v>207</v>
+        <v>5642.009</v>
       </c>
       <c r="L27">
-        <v>-1455</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-2505</v>
+        <v>-260.61799999999999</v>
       </c>
       <c r="N27">
-        <v>6646</v>
+        <v>12305.106</v>
       </c>
       <c r="O27">
-        <v>39340</v>
+        <v>21966.975999999999</v>
       </c>
       <c r="P27">
-        <v>24066</v>
+        <v>12476.641</v>
       </c>
       <c r="Q27">
-        <v>-9914</v>
+        <v>161.15600000000001</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>31547</v>
+        <v>14319.141</v>
       </c>
       <c r="U27">
-        <v>8706</v>
+        <v>682.34799999999996</v>
       </c>
       <c r="V27">
-        <v>574</v>
+        <v>1056.287</v>
       </c>
       <c r="W27">
-        <v>-460</v>
+        <v>-453.80700000000002</v>
       </c>
       <c r="X27">
-        <v>-4399</v>
+        <v>-506.65699999999998</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-15</v>
+        <v>2.927</v>
       </c>
       <c r="AA27">
-        <v>419</v>
+        <v>697.53700000000003</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>283</v>
+        <v>988.74400000000003</v>
       </c>
       <c r="D28">
-        <v>6637</v>
+        <v>6370.62</v>
       </c>
       <c r="E28">
-        <v>4633</v>
+        <v>3395.0309999999999</v>
       </c>
       <c r="F28">
-        <v>3448</v>
+        <v>3566.2939999999999</v>
       </c>
       <c r="G28">
-        <v>19983</v>
+        <v>12338.909</v>
       </c>
       <c r="H28">
-        <v>71151</v>
+        <v>37153.222000000002</v>
       </c>
       <c r="I28">
-        <v>1667</v>
+        <v>1061.499</v>
       </c>
       <c r="J28">
-        <v>23869</v>
+        <v>6606.0050000000001</v>
       </c>
       <c r="K28">
-        <v>218</v>
+        <v>5470.18</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>6803</v>
+        <v>12010.217000000001</v>
       </c>
       <c r="O28">
-        <v>39363</v>
+        <v>21819.069</v>
       </c>
       <c r="P28">
-        <v>24090</v>
+        <v>12326.847</v>
       </c>
       <c r="Q28">
-        <v>969</v>
+        <v>856.58299999999997</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>31788</v>
+        <v>15334.153</v>
       </c>
       <c r="U28">
-        <v>9675</v>
+        <v>1538.931</v>
       </c>
       <c r="V28">
-        <v>1351</v>
+        <v>1539.4549999999999</v>
       </c>
       <c r="W28">
-        <v>-462</v>
+        <v>-500.75200000000001</v>
       </c>
       <c r="X28">
-        <v>-384</v>
+        <v>-532.221</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-13</v>
+        <v>284.71100000000001</v>
       </c>
       <c r="AA28">
-        <v>283</v>
+        <v>988.74400000000003</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>603</v>
+        <v>717.00599999999997</v>
       </c>
       <c r="D29">
-        <v>6829</v>
+        <v>6376.7060000000001</v>
       </c>
       <c r="E29">
-        <v>4800</v>
+        <v>4211.4570000000003</v>
       </c>
       <c r="F29">
-        <v>3953</v>
+        <v>3512.6759999999999</v>
       </c>
       <c r="G29">
-        <v>21377</v>
+        <v>12838.196</v>
       </c>
       <c r="H29">
-        <v>72248</v>
+        <v>37621.909</v>
       </c>
       <c r="I29">
-        <v>1858</v>
+        <v>1154.396</v>
       </c>
       <c r="J29">
-        <v>23363</v>
+        <v>6477.9189999999999</v>
       </c>
       <c r="K29">
-        <v>211</v>
+        <v>5313.5519999999997</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>7935</v>
+        <v>12283.058999999999</v>
       </c>
       <c r="O29">
-        <v>40030</v>
+        <v>22013.749</v>
       </c>
       <c r="P29">
-        <v>24078</v>
+        <v>12242.31</v>
       </c>
       <c r="Q29">
-        <v>1337</v>
+        <v>371.9</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>32218</v>
+        <v>15608.16</v>
       </c>
       <c r="U29">
-        <v>11012</v>
+        <v>1910.8309999999999</v>
       </c>
       <c r="V29">
-        <v>2005</v>
+        <v>1538.01</v>
       </c>
       <c r="W29">
-        <v>-463</v>
+        <v>-502.29399999999998</v>
       </c>
       <c r="X29">
-        <v>-386</v>
+        <v>-817.97400000000005</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-70</v>
+        <v>48.07</v>
       </c>
       <c r="AA29">
-        <v>603</v>
+        <v>717.005</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-828</v>
+        <v>1203.027</v>
       </c>
       <c r="D30">
-        <v>7589</v>
+        <v>7221.3509999999997</v>
       </c>
       <c r="E30">
-        <v>5249</v>
+        <v>4946.8760000000002</v>
       </c>
       <c r="F30">
-        <v>4386</v>
+        <v>4153.6710000000003</v>
       </c>
       <c r="G30">
-        <v>20147</v>
+        <v>14042.733</v>
       </c>
       <c r="H30">
-        <v>76250</v>
+        <v>39713.923999999999</v>
       </c>
       <c r="I30">
-        <v>2402</v>
+        <v>1219.529</v>
       </c>
       <c r="J30">
-        <v>27210</v>
+        <v>9487.7890000000007</v>
       </c>
       <c r="K30">
-        <v>206</v>
+        <v>1827.3610000000001</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>8912</v>
+        <v>9103.2780000000002</v>
       </c>
       <c r="O30">
-        <v>45152</v>
+        <v>21935.383999999998</v>
       </c>
       <c r="P30">
-        <v>27924</v>
+        <v>12213.704</v>
       </c>
       <c r="Q30">
-        <v>-1605</v>
+        <v>545.553</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>99000</v>
+        <v>68000</v>
       </c>
       <c r="T30">
-        <v>31098</v>
+        <v>17778.54</v>
       </c>
       <c r="U30">
-        <v>9407</v>
+        <v>2456.384</v>
       </c>
       <c r="V30">
-        <v>1640</v>
+        <v>1050.0909999999999</v>
       </c>
       <c r="W30">
-        <v>-464</v>
+        <v>-502.29700000000003</v>
       </c>
       <c r="X30">
-        <v>-112</v>
+        <v>-455.78</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>17</v>
+        <v>217.70699999999999</v>
       </c>
       <c r="AA30">
-        <v>-828</v>
+        <v>1203.027</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>418</v>
+        <v>937.86699999999996</v>
       </c>
       <c r="D31">
-        <v>7390</v>
+        <v>6765.6030000000001</v>
       </c>
       <c r="E31">
-        <v>5356</v>
+        <v>4998.28</v>
       </c>
       <c r="F31">
-        <v>4323</v>
+        <v>3804.5309999999999</v>
       </c>
       <c r="G31">
-        <v>14964</v>
+        <v>15111.74</v>
       </c>
       <c r="H31">
-        <v>70908</v>
+        <v>41177.572</v>
       </c>
       <c r="I31">
-        <v>2476</v>
+        <v>1228.2429999999999</v>
       </c>
       <c r="J31">
-        <v>21353</v>
+        <v>9042.8580000000002</v>
       </c>
       <c r="K31">
-        <v>230</v>
+        <v>2956.5909999999999</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-5979</v>
+        <v>-200</v>
       </c>
       <c r="N31">
-        <v>9010</v>
+        <v>10770.445</v>
       </c>
       <c r="O31">
-        <v>39307</v>
+        <v>23198.027999999998</v>
       </c>
       <c r="P31">
-        <v>22090</v>
+        <v>13222.013999999999</v>
       </c>
       <c r="Q31">
-        <v>-5550</v>
+        <v>253.56700000000001</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>31601</v>
+        <v>17979.544000000002</v>
       </c>
       <c r="U31">
-        <v>3857</v>
+        <v>2709.951</v>
       </c>
       <c r="V31">
-        <v>1108</v>
+        <v>1305.1510000000001</v>
       </c>
       <c r="W31">
-        <v>-491</v>
+        <v>-504.55</v>
       </c>
       <c r="X31">
-        <v>-6455</v>
+        <v>-226.26599999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-5</v>
+        <v>-541.97799999999995</v>
       </c>
       <c r="AA31">
-        <v>418</v>
+        <v>937.86699999999996</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>733</v>
+        <v>1322.0139999999999</v>
       </c>
       <c r="D32">
-        <v>7767</v>
+        <v>7314.0209999999997</v>
       </c>
       <c r="E32">
-        <v>5192</v>
+        <v>5189.0519999999997</v>
       </c>
       <c r="F32">
-        <v>4485</v>
+        <v>4194.3209999999999</v>
       </c>
       <c r="G32">
-        <v>14122</v>
+        <v>16957.168000000001</v>
       </c>
       <c r="H32">
-        <v>68415</v>
+        <v>44073.718999999997</v>
       </c>
       <c r="I32">
-        <v>2503</v>
+        <v>1180.3969999999999</v>
       </c>
       <c r="J32">
-        <v>20053</v>
+        <v>8458.5840000000007</v>
       </c>
       <c r="K32">
-        <v>341</v>
+        <v>3706.123</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>8951</v>
+        <v>12016.55</v>
       </c>
       <c r="O32">
-        <v>37641</v>
+        <v>25114.917000000001</v>
       </c>
       <c r="P32">
-        <v>20900</v>
+        <v>13885.707</v>
       </c>
       <c r="Q32">
-        <v>-792</v>
+        <v>1086.635</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>30774</v>
+        <v>18958.802</v>
       </c>
       <c r="U32">
-        <v>3065</v>
+        <v>3796.5859999999998</v>
       </c>
       <c r="V32">
-        <v>1244</v>
+        <v>1758.4749999999999</v>
       </c>
       <c r="W32">
-        <v>-494</v>
+        <v>-555.63599999999997</v>
       </c>
       <c r="X32">
-        <v>-1631</v>
+        <v>57.683</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-37</v>
+        <v>-348.58</v>
       </c>
       <c r="AA32">
-        <v>733</v>
+        <v>1322.0139999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>563</v>
+        <v>1084.6120000000001</v>
       </c>
       <c r="D33">
-        <v>7656</v>
+        <v>7497.66</v>
       </c>
       <c r="E33">
-        <v>5271</v>
+        <v>4994.0749999999998</v>
       </c>
       <c r="F33">
-        <v>4490</v>
+        <v>4144.7910000000002</v>
       </c>
       <c r="G33">
-        <v>18196</v>
+        <v>15226.733</v>
       </c>
       <c r="H33">
-        <v>71637</v>
+        <v>41753.012000000002</v>
       </c>
       <c r="I33">
-        <v>2730</v>
+        <v>1223.848</v>
       </c>
       <c r="J33">
-        <v>19556</v>
+        <v>8468.0329999999994</v>
       </c>
       <c r="K33">
-        <v>211</v>
+        <v>595.21799999999996</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>12776</v>
+        <v>9559.4390000000003</v>
       </c>
       <c r="O33">
-        <v>40739</v>
+        <v>22407.177</v>
       </c>
       <c r="P33">
-        <v>23830</v>
+        <v>10564.495000000001</v>
       </c>
       <c r="Q33">
-        <v>4304</v>
+        <v>-986.24300000000005</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>30898</v>
+        <v>19345.834999999999</v>
       </c>
       <c r="U33">
-        <v>7369</v>
+        <v>2810.3429999999998</v>
       </c>
       <c r="V33">
-        <v>2183</v>
+        <v>2698.4110000000001</v>
       </c>
       <c r="W33">
-        <v>-494</v>
+        <v>-555.55700000000002</v>
       </c>
       <c r="X33">
-        <v>2471</v>
+        <v>-3365.194</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>19</v>
+        <v>453.75299999999999</v>
       </c>
       <c r="AA33">
-        <v>563</v>
+        <v>1084.6120000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>7765</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>5182</v>
+        <v>5465.66</v>
       </c>
       <c r="F34">
-        <v>4621</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>14632</v>
+        <v>17042.559000000001</v>
       </c>
       <c r="H34">
-        <v>67173</v>
+        <v>42419.203999999998</v>
       </c>
       <c r="I34">
-        <v>2975</v>
+        <v>1351.4359999999999</v>
       </c>
       <c r="J34">
-        <v>19359</v>
+        <v>8713.3269999999993</v>
       </c>
       <c r="K34">
-        <v>200</v>
+        <v>1106.069</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>9012</v>
+        <v>11591.907999999999</v>
       </c>
       <c r="O34">
-        <v>36451</v>
+        <v>24900.512999999999</v>
       </c>
       <c r="P34">
-        <v>19566</v>
+        <v>11445.302</v>
       </c>
       <c r="Q34">
-        <v>-3525</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>103000</v>
+        <v>69000</v>
       </c>
       <c r="T34">
-        <v>30722</v>
+        <v>17518.690999999999</v>
       </c>
       <c r="U34">
-        <v>3844</v>
+        <v>4112.0219999999999</v>
       </c>
       <c r="V34">
-        <v>1765</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>-495</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-4776</v>
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>672</v>
+        <v>1438.6369999999999</v>
       </c>
       <c r="D35">
-        <v>7535</v>
+        <v>6718.3680000000004</v>
       </c>
       <c r="E35">
-        <v>5345</v>
+        <v>5227.1019999999999</v>
       </c>
       <c r="F35">
-        <v>4375</v>
+        <v>3782.4470000000001</v>
       </c>
       <c r="G35">
-        <v>14409</v>
+        <v>18007.894</v>
       </c>
       <c r="H35">
-        <v>67610</v>
+        <v>45437.597000000002</v>
       </c>
       <c r="I35">
-        <v>3045</v>
+        <v>1184.761</v>
       </c>
       <c r="J35">
-        <v>18902</v>
+        <v>11675.953</v>
       </c>
       <c r="K35">
-        <v>201</v>
+        <v>2953.404</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-500</v>
+        <v>-1983.1759999999999</v>
       </c>
       <c r="N35">
-        <v>9113</v>
+        <v>11770.271000000001</v>
       </c>
       <c r="O35">
-        <v>36481</v>
+        <v>27454.456999999999</v>
       </c>
       <c r="P35">
-        <v>19962</v>
+        <v>15714.235000000001</v>
       </c>
       <c r="Q35">
-        <v>-822</v>
+        <v>762.77300000000002</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>31129</v>
+        <v>17983.14</v>
       </c>
       <c r="U35">
-        <v>3022</v>
+        <v>4874.7950000000001</v>
       </c>
       <c r="V35">
-        <v>712</v>
+        <v>698.71799999999996</v>
       </c>
       <c r="W35">
-        <v>-565</v>
+        <v>-559.08100000000002</v>
       </c>
       <c r="X35">
-        <v>-1142</v>
+        <v>1684.6020000000001</v>
       </c>
       <c r="Y35">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>2</v>
+        <v>138.96199999999999</v>
       </c>
       <c r="AA35">
-        <v>672</v>
+        <v>1438.6369999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>1006</v>
+        <v>1288.105</v>
       </c>
       <c r="D36">
-        <v>7979</v>
+        <v>7494.8760000000002</v>
       </c>
       <c r="E36">
-        <v>5548</v>
+        <v>5452.7650000000003</v>
       </c>
       <c r="F36">
-        <v>4700</v>
+        <v>4365.8779999999997</v>
       </c>
       <c r="G36">
-        <v>15195</v>
+        <v>19628.376</v>
       </c>
       <c r="H36">
-        <v>68427</v>
+        <v>47630.017</v>
       </c>
       <c r="I36">
-        <v>3222</v>
+        <v>1185.405</v>
       </c>
       <c r="J36">
-        <v>18982</v>
+        <v>11371.518</v>
       </c>
       <c r="K36">
-        <v>204</v>
+        <v>3739.7269999999999</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>9062</v>
+        <v>12042.380999999999</v>
       </c>
       <c r="O36">
-        <v>36533</v>
+        <v>27709.949000000001</v>
       </c>
       <c r="P36">
-        <v>20067</v>
+        <v>15703.348</v>
       </c>
       <c r="Q36">
-        <v>115</v>
+        <v>-670.49099999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>31894</v>
+        <v>19920.067999999999</v>
       </c>
       <c r="U36">
-        <v>3137</v>
+        <v>4204.3040000000001</v>
       </c>
       <c r="V36">
-        <v>1060</v>
+        <v>1713.8009999999999</v>
       </c>
       <c r="W36">
-        <v>-568</v>
+        <v>-618.22699999999998</v>
       </c>
       <c r="X36">
-        <v>-449</v>
+        <v>-329.62299999999999</v>
       </c>
       <c r="Y36">
-        <v>670</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-1856.6949999999999</v>
       </c>
       <c r="AA36">
-        <v>1006</v>
+        <v>1288.105</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>960</v>
+        <v>1480.367</v>
       </c>
       <c r="D37">
-        <v>8076</v>
+        <v>7761.3360000000002</v>
       </c>
       <c r="E37">
-        <v>5450</v>
+        <v>5474.9870000000001</v>
       </c>
       <c r="F37">
-        <v>4718</v>
+        <v>4401.1490000000003</v>
       </c>
       <c r="G37">
-        <v>16119</v>
+        <v>21415.842000000001</v>
       </c>
       <c r="H37">
-        <v>68539</v>
+        <v>49846.82</v>
       </c>
       <c r="I37">
-        <v>3029</v>
+        <v>1394.952</v>
       </c>
       <c r="J37">
-        <v>17639</v>
+        <v>11653.556</v>
       </c>
       <c r="K37">
-        <v>204</v>
+        <v>3455.6190000000001</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>10491</v>
+        <v>12524.507</v>
       </c>
       <c r="O37">
-        <v>36520</v>
+        <v>28472.07</v>
       </c>
       <c r="P37">
-        <v>20001</v>
+        <v>15731.286</v>
       </c>
       <c r="Q37">
-        <v>954</v>
+        <v>671.61099999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="T37">
-        <v>32019</v>
+        <v>21374.75</v>
       </c>
       <c r="U37">
-        <v>4091</v>
+        <v>4875.915</v>
       </c>
       <c r="V37">
-        <v>1948</v>
+        <v>3030.0239999999999</v>
       </c>
       <c r="W37">
-        <v>-569</v>
+        <v>-618.37599999999998</v>
       </c>
       <c r="X37">
-        <v>-513</v>
+        <v>-856.33299999999997</v>
       </c>
       <c r="Y37">
-        <v>702</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-24</v>
+        <v>-1177.9580000000001</v>
       </c>
       <c r="AA37">
-        <v>960</v>
+        <v>1480.367</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>1049</v>
+        <v>1538.729</v>
       </c>
       <c r="D38">
-        <v>8314</v>
+        <v>8790.1270000000004</v>
       </c>
       <c r="E38">
-        <v>5425</v>
+        <v>6541.9409999999998</v>
       </c>
       <c r="F38">
-        <v>4896</v>
+        <v>5005.9040000000005</v>
       </c>
       <c r="G38">
-        <v>15667</v>
+        <v>23313.891</v>
       </c>
       <c r="H38">
-        <v>67887</v>
+        <v>52416.623</v>
       </c>
       <c r="I38">
-        <v>3252</v>
+        <v>1280.5419999999999</v>
       </c>
       <c r="J38">
-        <v>16661</v>
+        <v>11484.294</v>
       </c>
       <c r="K38">
-        <v>201</v>
+        <v>4403.4380000000001</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>10863</v>
+        <v>13049.489</v>
       </c>
       <c r="O38">
-        <v>36586</v>
+        <v>29517.894</v>
       </c>
       <c r="P38">
-        <v>19099</v>
+        <v>16673.914000000001</v>
       </c>
       <c r="Q38">
-        <v>-231</v>
+        <v>3933.424</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>107000</v>
+        <v>73000</v>
       </c>
       <c r="T38">
-        <v>31301</v>
+        <v>22898.728999999999</v>
       </c>
       <c r="U38">
-        <v>3860</v>
+        <v>8809.3389999999999</v>
       </c>
       <c r="V38">
-        <v>2416</v>
+        <v>1832.617</v>
       </c>
       <c r="W38">
-        <v>-568</v>
+        <v>-618.77599999999995</v>
       </c>
       <c r="X38">
-        <v>-2185</v>
+        <v>503.37299999999999</v>
       </c>
       <c r="Y38">
-        <v>755</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-60</v>
+        <v>2663.027</v>
       </c>
       <c r="AA38">
-        <v>1049</v>
+        <v>1538.729</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>564</v>
+        <v>1003.015</v>
       </c>
       <c r="D39">
-        <v>7726</v>
+        <v>7698.3540000000003</v>
       </c>
       <c r="E39">
-        <v>5292</v>
+        <v>6520.2219999999998</v>
       </c>
       <c r="F39">
-        <v>4449</v>
+        <v>4363.25</v>
       </c>
       <c r="G39">
-        <v>15498</v>
+        <v>17690.678</v>
       </c>
       <c r="H39">
-        <v>66777</v>
+        <v>53358.622000000003</v>
       </c>
       <c r="I39">
-        <v>3181</v>
+        <v>1663.5229999999999</v>
       </c>
       <c r="J39">
-        <v>16804</v>
+        <v>11029.648999999999</v>
       </c>
       <c r="K39">
-        <v>204</v>
+        <v>5160.4269999999997</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-1</v>
+        <v>-1.254</v>
       </c>
       <c r="N39">
-        <v>10808</v>
+        <v>15183.485000000001</v>
       </c>
       <c r="O39">
-        <v>36350</v>
+        <v>32346.281999999999</v>
       </c>
       <c r="P39">
-        <v>18272</v>
+        <v>17478.169000000002</v>
       </c>
       <c r="Q39">
-        <v>-483</v>
+        <v>-7242.5190000000002</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>30427</v>
+        <v>21012.34</v>
       </c>
       <c r="U39">
-        <v>3377</v>
+        <v>1566.82</v>
       </c>
       <c r="V39">
-        <v>715</v>
+        <v>1522.752</v>
       </c>
       <c r="W39">
-        <v>-638</v>
+        <v>-620.75199999999995</v>
       </c>
       <c r="X39">
-        <v>-735</v>
+        <v>-520.19899999999996</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>-36</v>
+        <v>874.13900000000001</v>
       </c>
       <c r="AA39">
-        <v>564</v>
+        <v>1003.015</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>537</v>
+        <v>1291.6500000000001</v>
       </c>
       <c r="D40">
-        <v>7328</v>
+        <v>8826.0139999999992</v>
       </c>
       <c r="E40">
-        <v>5140</v>
+        <v>6338.35</v>
       </c>
       <c r="F40">
-        <v>4065</v>
+        <v>5282.0820000000003</v>
       </c>
       <c r="G40">
-        <v>17221</v>
+        <v>19915.307000000001</v>
       </c>
       <c r="H40">
-        <v>68776</v>
+        <v>53381.402000000002</v>
       </c>
       <c r="I40">
-        <v>3335</v>
+        <v>1615.606</v>
       </c>
       <c r="J40">
-        <v>18184</v>
+        <v>12615.655000000001</v>
       </c>
       <c r="K40">
-        <v>205</v>
+        <v>3050.9749999999999</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>10959</v>
+        <v>14689.26</v>
       </c>
       <c r="O40">
-        <v>37978</v>
+        <v>33386.767999999996</v>
       </c>
       <c r="P40">
-        <v>19679</v>
+        <v>18484.048999999999</v>
       </c>
       <c r="Q40">
-        <v>1386</v>
+        <v>2754.8820000000001</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>30798</v>
+        <v>19994.633999999998</v>
       </c>
       <c r="U40">
-        <v>4763</v>
+        <v>4321.7020000000002</v>
       </c>
       <c r="V40">
-        <v>1322</v>
+        <v>2348.297</v>
       </c>
       <c r="W40">
-        <v>-642</v>
+        <v>-679.19899999999996</v>
       </c>
       <c r="X40">
-        <v>658</v>
+        <v>212.87799999999999</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>4</v>
+        <v>1085.241</v>
       </c>
       <c r="AA40">
-        <v>537</v>
+        <v>1291.6500000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>1232</v>
+        <v>890.66</v>
       </c>
       <c r="D41">
-        <v>8853</v>
+        <v>8674.5049999999992</v>
       </c>
       <c r="E41">
-        <v>5649</v>
+        <v>6248.9080000000004</v>
       </c>
       <c r="F41">
-        <v>4887</v>
+        <v>5014.3890000000001</v>
       </c>
       <c r="G41">
-        <v>17390</v>
+        <v>19447.419999999998</v>
       </c>
       <c r="H41">
-        <v>69043</v>
+        <v>57373.62</v>
       </c>
       <c r="I41">
-        <v>3189</v>
+        <v>1531.72</v>
       </c>
       <c r="J41">
-        <v>18349</v>
+        <v>12910.681</v>
       </c>
       <c r="K41">
-        <v>208</v>
+        <v>2957.83</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>10257</v>
+        <v>15583.870999999999</v>
       </c>
       <c r="O41">
-        <v>37448</v>
+        <v>35890.896000000001</v>
       </c>
       <c r="P41">
-        <v>18563</v>
+        <v>18717.053</v>
       </c>
       <c r="Q41">
-        <v>-283</v>
+        <v>-503.55700000000002</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>31595</v>
+        <v>21482.723999999998</v>
       </c>
       <c r="U41">
-        <v>4480</v>
+        <v>3818.145</v>
       </c>
       <c r="V41">
-        <v>2066</v>
+        <v>2548.413</v>
       </c>
       <c r="W41">
-        <v>-639</v>
+        <v>-679.423</v>
       </c>
       <c r="X41">
-        <v>-1915</v>
+        <v>-687.10599999999999</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>17</v>
+        <v>14.317</v>
       </c>
       <c r="AA41">
-        <v>1232</v>
+        <v>890.66</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>1440.847</v>
+      </c>
+      <c r="D42">
+        <v>9967.848</v>
+      </c>
+      <c r="E42">
+        <v>7184.0339999999997</v>
+      </c>
+      <c r="F42">
+        <v>5996.808</v>
+      </c>
+      <c r="G42">
+        <v>22317.528999999999</v>
+      </c>
+      <c r="H42">
+        <v>60573.851999999999</v>
+      </c>
+      <c r="I42">
+        <v>1535.759</v>
+      </c>
+      <c r="J42">
+        <v>12559.517</v>
+      </c>
+      <c r="K42">
+        <v>3699.7959999999998</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>17262.434000000001</v>
+      </c>
+      <c r="O42">
+        <v>37808.720999999998</v>
+      </c>
+      <c r="P42">
+        <v>18954.282999999999</v>
+      </c>
+      <c r="Q42">
+        <v>-169.774</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>90000</v>
+      </c>
+      <c r="T42">
+        <v>22765.131000000001</v>
+      </c>
+      <c r="U42">
+        <v>3648.3710000000001</v>
+      </c>
+      <c r="V42">
+        <v>2316.5189999999998</v>
+      </c>
+      <c r="W42">
+        <v>-692.101</v>
+      </c>
+      <c r="X42">
+        <v>-93.313999999999993</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-1825.268</v>
+      </c>
+      <c r="AA42">
+        <v>1440.847</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>863.81799999999998</v>
+      </c>
+      <c r="D43">
+        <v>9040.85</v>
+      </c>
+      <c r="E43">
+        <v>7160.2190000000001</v>
+      </c>
+      <c r="F43">
+        <v>5230.8670000000002</v>
+      </c>
+      <c r="G43">
+        <v>23647.132000000001</v>
+      </c>
+      <c r="H43">
+        <v>61651.362999999998</v>
+      </c>
+      <c r="I43">
+        <v>1577.1679999999999</v>
+      </c>
+      <c r="J43">
+        <v>12578.245999999999</v>
+      </c>
+      <c r="K43">
+        <v>4078.3359999999998</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-500.58199999999999</v>
+      </c>
+      <c r="N43">
+        <v>17225.102999999999</v>
+      </c>
+      <c r="O43">
+        <v>36931.031000000003</v>
+      </c>
+      <c r="P43">
+        <v>18830.208999999999</v>
+      </c>
+      <c r="Q43">
+        <v>-908.21500000000003</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>24720.331999999999</v>
+      </c>
+      <c r="U43">
+        <v>2740.1559999999999</v>
+      </c>
+      <c r="V43">
+        <v>2011.146</v>
+      </c>
+      <c r="W43">
+        <v>-683.96699999999998</v>
+      </c>
+      <c r="X43">
+        <v>-684.33399999999995</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-1917.221</v>
+      </c>
+      <c r="AA43">
+        <v>863.81799999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>1942.7819999999999</v>
+      </c>
+      <c r="D44">
+        <v>9616.2909999999993</v>
+      </c>
+      <c r="E44">
+        <v>7038.0690000000004</v>
+      </c>
+      <c r="F44">
+        <v>5776.8190000000004</v>
+      </c>
+      <c r="G44">
+        <v>24132.178</v>
+      </c>
+      <c r="H44">
+        <v>62004.241000000002</v>
+      </c>
+      <c r="I44">
+        <v>1448.5550000000001</v>
+      </c>
+      <c r="J44">
+        <v>12627.761</v>
+      </c>
+      <c r="K44">
+        <v>4905.5069999999996</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>15839.928</v>
+      </c>
+      <c r="O44">
+        <v>35534.538</v>
+      </c>
+      <c r="P44">
+        <v>18219.111000000001</v>
+      </c>
+      <c r="Q44">
+        <v>1336.8620000000001</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>26469.703000000001</v>
+      </c>
+      <c r="U44">
+        <v>4077.018</v>
+      </c>
+      <c r="V44">
+        <v>2503.152</v>
+      </c>
+      <c r="W44">
+        <v>-750.40899999999999</v>
+      </c>
+      <c r="X44">
+        <v>-1386.181</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-1108.5160000000001</v>
+      </c>
+      <c r="AA44">
+        <v>1942.7819999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>303.18099999999998</v>
+      </c>
+      <c r="D45">
+        <v>9816.6650000000009</v>
+      </c>
+      <c r="E45">
+        <v>7043.5420000000004</v>
+      </c>
+      <c r="F45">
+        <v>5843.415</v>
+      </c>
+      <c r="G45">
+        <v>23094.416000000001</v>
+      </c>
+      <c r="H45">
+        <v>59628.175999999999</v>
+      </c>
+      <c r="I45">
+        <v>1601.998</v>
+      </c>
+      <c r="J45">
+        <v>13096.767</v>
+      </c>
+      <c r="K45">
+        <v>2899.5630000000001</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>15413.960999999999</v>
+      </c>
+      <c r="O45">
+        <v>34939.203999999998</v>
+      </c>
+      <c r="P45">
+        <v>16721.328000000001</v>
+      </c>
+      <c r="Q45">
+        <v>972.28099999999995</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>24688.972000000002</v>
+      </c>
+      <c r="U45">
+        <v>5049.299</v>
+      </c>
+      <c r="V45">
+        <v>3054.43</v>
+      </c>
+      <c r="W45">
+        <v>-751.63</v>
+      </c>
+      <c r="X45">
+        <v>-2668.1219999999998</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>1932.1890000000001</v>
+      </c>
+      <c r="AA45">
+        <v>303.18099999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>1618.6679999999999</v>
+      </c>
+      <c r="D46">
+        <v>10377.453</v>
+      </c>
+      <c r="E46">
+        <v>7683.92</v>
+      </c>
+      <c r="F46">
+        <v>6563.5780000000004</v>
+      </c>
+      <c r="G46">
+        <v>23768.774000000001</v>
+      </c>
+      <c r="H46">
+        <v>60276.892999999996</v>
+      </c>
+      <c r="I46">
+        <v>1721.127</v>
+      </c>
+      <c r="J46">
+        <v>12039.822</v>
+      </c>
+      <c r="K46">
+        <v>1667.8589999999999</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>15480.227999999999</v>
+      </c>
+      <c r="O46">
+        <v>35750.748</v>
+      </c>
+      <c r="P46">
+        <v>15414.576999999999</v>
+      </c>
+      <c r="Q46">
+        <v>1763.521</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>91000</v>
+      </c>
+      <c r="T46">
+        <v>24526.145</v>
+      </c>
+      <c r="U46">
+        <v>6812.82</v>
+      </c>
+      <c r="V46">
+        <v>1401.3489999999999</v>
+      </c>
+      <c r="W46">
+        <v>-752.09</v>
+      </c>
+      <c r="X46">
+        <v>-1284.818</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>1632.2809999999999</v>
+      </c>
+      <c r="AA46">
+        <v>1618.6679999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>1242.124</v>
+      </c>
+      <c r="D47">
+        <v>5283.6850000000004</v>
+      </c>
+      <c r="E47">
+        <v>7659.8819999999996</v>
+      </c>
+      <c r="F47">
+        <v>2924.5210000000002</v>
+      </c>
+      <c r="G47">
+        <v>25602.131000000001</v>
+      </c>
+      <c r="H47">
+        <v>62415.800999999999</v>
+      </c>
+      <c r="I47">
+        <v>1726.962</v>
+      </c>
+      <c r="J47">
+        <v>11861.504999999999</v>
+      </c>
+      <c r="K47">
+        <v>3112.8589999999999</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-54</v>
+      </c>
+      <c r="N47">
+        <v>16785.922999999999</v>
+      </c>
+      <c r="O47">
+        <v>36872.366999999998</v>
+      </c>
+      <c r="P47">
+        <v>16646.939999999999</v>
+      </c>
+      <c r="Q47">
+        <v>-2466.91</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>25543.434000000001</v>
+      </c>
+      <c r="U47">
+        <v>4345.91</v>
+      </c>
+      <c r="V47">
+        <v>2224.9299999999998</v>
+      </c>
+      <c r="W47">
+        <v>-758.548</v>
+      </c>
+      <c r="X47">
+        <v>165.22499999999999</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-3899.5839999999998</v>
+      </c>
+      <c r="AA47">
+        <v>1242.124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>1724.6120000000001</v>
+      </c>
+      <c r="D48">
+        <v>5313.2969999999996</v>
+      </c>
+      <c r="E48">
+        <v>6767.9520000000002</v>
+      </c>
+      <c r="F48">
+        <v>2943.241</v>
+      </c>
+      <c r="G48">
+        <v>26257.491999999998</v>
+      </c>
+      <c r="H48">
+        <v>61859.79</v>
+      </c>
+      <c r="I48">
+        <v>1519.46</v>
+      </c>
+      <c r="J48">
+        <v>12004.092000000001</v>
+      </c>
+      <c r="K48">
+        <v>4393.5249999999996</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>17120.467000000001</v>
+      </c>
+      <c r="O48">
+        <v>37287.305</v>
+      </c>
+      <c r="P48">
+        <v>18087.014999999999</v>
+      </c>
+      <c r="Q48">
+        <v>2706.866</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>24572.485000000001</v>
+      </c>
+      <c r="U48">
+        <v>7052.7759999999998</v>
+      </c>
+      <c r="V48">
+        <v>2066.8290000000002</v>
+      </c>
+      <c r="W48">
+        <v>-806.98400000000004</v>
+      </c>
+      <c r="X48">
+        <v>115.367</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>1222.327</v>
+      </c>
+      <c r="AA48">
+        <v>1724.6120000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>1942.8030000000001</v>
+      </c>
+      <c r="D49">
+        <v>5264.7870000000003</v>
+      </c>
+      <c r="E49">
+        <v>6948.7139999999999</v>
+      </c>
+      <c r="F49">
+        <v>2845.8739999999998</v>
+      </c>
+      <c r="G49">
+        <v>27264.243999999999</v>
+      </c>
+      <c r="H49">
+        <v>63257.737999999998</v>
+      </c>
+      <c r="I49">
+        <v>1605.202</v>
+      </c>
+      <c r="J49">
+        <v>12054.64</v>
+      </c>
+      <c r="K49">
+        <v>2521.1469999999999</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>16285.977999999999</v>
+      </c>
+      <c r="O49">
+        <v>36153.396999999997</v>
+      </c>
+      <c r="P49">
+        <v>16279.630999999999</v>
+      </c>
+      <c r="Q49">
+        <v>944.17200000000003</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>27104.341</v>
+      </c>
+      <c r="U49">
+        <v>7996.9480000000003</v>
+      </c>
+      <c r="V49">
+        <v>3519.502</v>
+      </c>
+      <c r="W49">
+        <v>-805.40499999999997</v>
+      </c>
+      <c r="X49">
+        <v>-2590.9569999999999</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>431.07400000000001</v>
+      </c>
+      <c r="AA49">
+        <v>1942.806</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>1053.461</v>
+      </c>
+      <c r="D50">
+        <v>5632.2309999999998</v>
+      </c>
+      <c r="E50">
+        <v>7613</v>
+      </c>
+      <c r="F50">
+        <v>3033.364</v>
+      </c>
+      <c r="G50">
+        <v>31323</v>
+      </c>
+      <c r="H50">
+        <v>67235</v>
+      </c>
+      <c r="I50">
+        <v>1797</v>
+      </c>
+      <c r="J50">
+        <v>18085</v>
+      </c>
+      <c r="K50">
+        <v>1467</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>13280</v>
+      </c>
+      <c r="O50">
+        <v>40422</v>
+      </c>
+      <c r="P50">
+        <v>20476</v>
+      </c>
+      <c r="Q50">
+        <v>2804.8719999999998</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>91000</v>
+      </c>
+      <c r="T50">
+        <v>26813</v>
+      </c>
+      <c r="U50">
+        <v>10802</v>
+      </c>
+      <c r="V50">
+        <v>1502.739</v>
+      </c>
+      <c r="W50">
+        <v>-812.06299999999999</v>
+      </c>
+      <c r="X50">
+        <v>2505.3649999999998</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-815.81700000000001</v>
+      </c>
+      <c r="AA50">
+        <v>1053.461</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>544</v>
+      </c>
+      <c r="D51">
+        <v>5378</v>
+      </c>
+      <c r="E51">
+        <v>3917.8649999999998</v>
+      </c>
+      <c r="F51">
+        <v>2946</v>
+      </c>
+      <c r="G51">
+        <v>19096.867999999999</v>
+      </c>
+      <c r="H51">
+        <v>42686.612999999998</v>
+      </c>
+      <c r="I51">
+        <v>1087.979</v>
+      </c>
+      <c r="J51">
+        <v>3466.576</v>
+      </c>
+      <c r="K51">
+        <v>2793.2550000000001</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>10406.325999999999</v>
+      </c>
+      <c r="O51">
+        <v>20003.338</v>
+      </c>
+      <c r="P51">
+        <v>7102.4260000000004</v>
+      </c>
+      <c r="Q51">
+        <v>-6429</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>22683.275000000001</v>
+      </c>
+      <c r="U51">
+        <v>4373.12</v>
+      </c>
+      <c r="V51">
+        <v>460</v>
+      </c>
+      <c r="W51">
+        <v>-224</v>
+      </c>
+      <c r="X51">
+        <v>-4733</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-1834</v>
+      </c>
+      <c r="AA51">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>3938.998</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>19831.124</v>
+      </c>
+      <c r="H52">
+        <v>42903.345999999998</v>
+      </c>
+      <c r="I52">
+        <v>1042.248</v>
+      </c>
+      <c r="J52">
+        <v>3410.759</v>
+      </c>
+      <c r="K52">
+        <v>3719.614</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>10919.614</v>
+      </c>
+      <c r="O52">
+        <v>20475.7</v>
+      </c>
+      <c r="P52">
+        <v>7934.5370000000003</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>22427.646000000001</v>
+      </c>
+      <c r="U52">
+        <v>5572.2539999999999</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>966</v>
+      </c>
+      <c r="D53">
+        <v>4825</v>
+      </c>
+      <c r="E53">
+        <v>3882.8029999999999</v>
+      </c>
+      <c r="F53">
+        <v>2570</v>
+      </c>
+      <c r="G53">
+        <v>19748.949000000001</v>
+      </c>
+      <c r="H53">
+        <v>44132.476999999999</v>
+      </c>
+      <c r="I53">
+        <v>1008.912</v>
+      </c>
+      <c r="J53">
+        <v>3403.069</v>
+      </c>
+      <c r="K53">
+        <v>4055.8670000000002</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>11331.665000000001</v>
+      </c>
+      <c r="O53">
+        <v>20344.545999999998</v>
+      </c>
+      <c r="P53">
+        <v>8262.9449999999997</v>
+      </c>
+      <c r="Q53">
+        <v>-2690</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>23787.931</v>
+      </c>
+      <c r="U53">
+        <v>2882.4540000000002</v>
+      </c>
+      <c r="V53">
+        <v>522</v>
+      </c>
+      <c r="W53">
+        <v>-220</v>
+      </c>
+      <c r="X53">
+        <v>-559</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-1873</v>
+      </c>
+      <c r="AA53">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>589</v>
+      </c>
+      <c r="D54">
+        <v>5014</v>
+      </c>
+      <c r="E54">
+        <v>3986</v>
+      </c>
+      <c r="F54">
+        <v>2700</v>
+      </c>
+      <c r="G54">
+        <v>19247</v>
+      </c>
+      <c r="H54">
+        <v>42953</v>
+      </c>
+      <c r="I54">
+        <v>1026</v>
+      </c>
+      <c r="J54">
+        <v>3388</v>
+      </c>
+      <c r="K54">
+        <v>2659</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>9507</v>
+      </c>
+      <c r="O54">
+        <v>17686</v>
+      </c>
+      <c r="P54">
+        <v>6561</v>
+      </c>
+      <c r="Q54">
+        <v>593</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>69000</v>
+      </c>
+      <c r="T54">
+        <v>25267</v>
+      </c>
+      <c r="U54">
+        <v>3475</v>
+      </c>
+      <c r="V54">
+        <v>1625</v>
+      </c>
+      <c r="W54">
+        <v>-218</v>
+      </c>
+      <c r="X54">
+        <v>-1869</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>1155</v>
+      </c>
+      <c r="AA54">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>375</v>
+      </c>
+      <c r="D55">
+        <v>4755</v>
+      </c>
+      <c r="E55">
+        <v>3883</v>
+      </c>
+      <c r="F55">
+        <v>2481</v>
+      </c>
+      <c r="G55">
+        <v>17931</v>
+      </c>
+      <c r="H55">
+        <v>41662</v>
+      </c>
+      <c r="I55">
+        <v>1074</v>
+      </c>
+      <c r="J55">
+        <v>3387</v>
+      </c>
+      <c r="K55">
+        <v>3854</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>10186</v>
+      </c>
+      <c r="O55">
+        <v>18173</v>
+      </c>
+      <c r="P55">
+        <v>7765</v>
+      </c>
+      <c r="Q55">
+        <v>-1415</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>23489</v>
+      </c>
+      <c r="U55">
+        <v>2060</v>
+      </c>
+      <c r="V55">
+        <v>336</v>
+      </c>
+      <c r="W55">
+        <v>-343</v>
+      </c>
+      <c r="X55">
+        <v>-1152</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-367</v>
+      </c>
+      <c r="AA55">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>466</v>
+      </c>
+      <c r="D56">
+        <v>5057</v>
+      </c>
+      <c r="E56">
+        <v>4056</v>
+      </c>
+      <c r="F56">
+        <v>2769</v>
+      </c>
+      <c r="G56">
+        <v>18258</v>
+      </c>
+      <c r="H56">
+        <v>41475</v>
+      </c>
+      <c r="I56">
+        <v>1062</v>
+      </c>
+      <c r="J56">
+        <v>3403</v>
+      </c>
+      <c r="K56">
+        <v>3430</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>9853</v>
+      </c>
+      <c r="O56">
+        <v>17771</v>
+      </c>
+      <c r="P56">
+        <v>7365</v>
+      </c>
+      <c r="Q56">
+        <v>1510</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>23704</v>
+      </c>
+      <c r="U56">
+        <v>3570</v>
+      </c>
+      <c r="V56">
+        <v>900</v>
+      </c>
+      <c r="W56">
+        <v>-333</v>
+      </c>
+      <c r="X56">
+        <v>-619</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>1486</v>
+      </c>
+      <c r="AA56">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>539</v>
+      </c>
+      <c r="D57">
+        <v>5079</v>
+      </c>
+      <c r="E57">
+        <v>3618</v>
+      </c>
+      <c r="F57">
+        <v>2760</v>
+      </c>
+      <c r="G57">
+        <v>16464</v>
+      </c>
+      <c r="H57">
+        <v>42514</v>
+      </c>
+      <c r="I57">
+        <v>965</v>
+      </c>
+      <c r="J57">
+        <v>3719</v>
+      </c>
+      <c r="K57">
+        <v>3891</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>10823</v>
+      </c>
+      <c r="O57">
+        <v>19521</v>
+      </c>
+      <c r="P57">
+        <v>8301</v>
+      </c>
+      <c r="Q57">
+        <v>43</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>22993</v>
+      </c>
+      <c r="U57">
+        <v>3613</v>
+      </c>
+      <c r="V57">
+        <v>1201</v>
+      </c>
+      <c r="W57">
+        <v>-331</v>
+      </c>
+      <c r="X57">
+        <v>-271</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>2239</v>
+      </c>
+      <c r="AA57">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>904</v>
+      </c>
+      <c r="D58">
+        <v>5356</v>
+      </c>
+      <c r="E58">
+        <v>3586</v>
+      </c>
+      <c r="F58">
+        <v>3046</v>
+      </c>
+      <c r="G58">
+        <v>13556</v>
+      </c>
+      <c r="H58">
+        <v>41207</v>
+      </c>
+      <c r="I58">
+        <v>1064</v>
+      </c>
+      <c r="J58">
+        <v>3393</v>
+      </c>
+      <c r="K58">
+        <v>3937</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>10467</v>
+      </c>
+      <c r="O58">
+        <v>19568</v>
+      </c>
+      <c r="P58">
+        <v>7830</v>
+      </c>
+      <c r="Q58">
+        <v>450</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>77000</v>
+      </c>
+      <c r="T58">
+        <v>21639</v>
+      </c>
+      <c r="U58">
+        <v>4063</v>
+      </c>
+      <c r="V58">
+        <v>1238</v>
+      </c>
+      <c r="W58">
+        <v>-335</v>
+      </c>
+      <c r="X58">
+        <v>-700</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>759</v>
+      </c>
+      <c r="AA58">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>2292</v>
+      </c>
+      <c r="D59">
+        <v>4897</v>
+      </c>
+      <c r="E59">
+        <v>3481</v>
+      </c>
+      <c r="F59">
+        <v>2816</v>
+      </c>
+      <c r="G59">
+        <v>19985</v>
+      </c>
+      <c r="H59">
+        <v>43095</v>
+      </c>
+      <c r="I59">
+        <v>1012</v>
+      </c>
+      <c r="J59">
+        <v>5931</v>
+      </c>
+      <c r="K59">
+        <v>2479</v>
+      </c>
+      <c r="L59">
+        <v>-1471</v>
+      </c>
+      <c r="M59">
+        <v>-10</v>
+      </c>
+      <c r="N59">
+        <v>9206</v>
+      </c>
+      <c r="O59">
+        <v>21107</v>
+      </c>
+      <c r="P59">
+        <v>8903</v>
+      </c>
+      <c r="Q59">
+        <v>-837</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>21988</v>
+      </c>
+      <c r="U59">
+        <v>3226</v>
+      </c>
+      <c r="V59">
+        <v>2</v>
+      </c>
+      <c r="W59">
+        <v>-364</v>
+      </c>
+      <c r="X59">
+        <v>-550</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-213</v>
+      </c>
+      <c r="AA59">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>784</v>
+      </c>
+      <c r="D60">
+        <v>5170</v>
+      </c>
+      <c r="E60">
+        <v>3553</v>
+      </c>
+      <c r="F60">
+        <v>2952</v>
+      </c>
+      <c r="G60">
+        <v>21131</v>
+      </c>
+      <c r="H60">
+        <v>44125</v>
+      </c>
+      <c r="I60">
+        <v>1000</v>
+      </c>
+      <c r="J60">
+        <v>5879</v>
+      </c>
+      <c r="K60">
+        <v>2436</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>9185</v>
+      </c>
+      <c r="O60">
+        <v>20999</v>
+      </c>
+      <c r="P60">
+        <v>8778</v>
+      </c>
+      <c r="Q60">
+        <v>822</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>23126</v>
+      </c>
+      <c r="U60">
+        <v>4048</v>
+      </c>
+      <c r="V60">
+        <v>941</v>
+      </c>
+      <c r="W60">
+        <v>-360</v>
+      </c>
+      <c r="X60">
+        <v>-374</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-1843</v>
+      </c>
+      <c r="AA60">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>580</v>
+      </c>
+      <c r="D61">
+        <v>5150</v>
+      </c>
+      <c r="E61">
+        <v>3460</v>
+      </c>
+      <c r="F61">
+        <v>2908</v>
+      </c>
+      <c r="G61">
+        <v>15894</v>
+      </c>
+      <c r="H61">
+        <v>41725</v>
+      </c>
+      <c r="I61">
+        <v>1007</v>
+      </c>
+      <c r="J61">
+        <v>5953</v>
+      </c>
+      <c r="K61">
+        <v>1928</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>8755</v>
+      </c>
+      <c r="O61">
+        <v>20506</v>
+      </c>
+      <c r="P61">
+        <v>8355</v>
+      </c>
+      <c r="Q61">
+        <v>-916</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>21219</v>
+      </c>
+      <c r="U61">
+        <v>3132</v>
+      </c>
+      <c r="V61">
+        <v>1195</v>
+      </c>
+      <c r="W61">
+        <v>-359</v>
+      </c>
+      <c r="X61">
+        <v>-815</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-570</v>
+      </c>
+      <c r="AA61">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>767</v>
+      </c>
+      <c r="D62">
+        <v>5188</v>
+      </c>
+      <c r="E62">
+        <v>3418</v>
+      </c>
+      <c r="F62">
+        <v>3009</v>
+      </c>
+      <c r="G62">
+        <v>14155</v>
+      </c>
+      <c r="H62">
+        <v>41247</v>
+      </c>
+      <c r="I62">
+        <v>1081</v>
+      </c>
+      <c r="J62">
+        <v>5871</v>
+      </c>
+      <c r="K62">
+        <v>2688</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>9186</v>
+      </c>
+      <c r="O62">
+        <v>19921</v>
+      </c>
+      <c r="P62">
+        <v>9001</v>
+      </c>
+      <c r="Q62">
+        <v>1869</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>74000</v>
+      </c>
+      <c r="T62">
+        <v>21326</v>
+      </c>
+      <c r="U62">
+        <v>5001</v>
+      </c>
+      <c r="V62">
+        <v>828</v>
+      </c>
+      <c r="W62">
+        <v>-360</v>
+      </c>
+      <c r="X62">
+        <v>-497</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>1805</v>
+      </c>
+      <c r="AA62">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>316</v>
+      </c>
+      <c r="D63">
+        <v>4885</v>
+      </c>
+      <c r="E63">
+        <v>3430</v>
+      </c>
+      <c r="F63">
+        <v>2745</v>
+      </c>
+      <c r="G63">
+        <v>12406</v>
+      </c>
+      <c r="H63">
+        <v>39637</v>
+      </c>
+      <c r="I63">
+        <v>1053</v>
+      </c>
+      <c r="J63">
+        <v>5977</v>
+      </c>
+      <c r="K63">
+        <v>2139</v>
+      </c>
+      <c r="L63">
+        <v>-583</v>
+      </c>
+      <c r="M63">
+        <v>-7</v>
+      </c>
+      <c r="N63">
+        <v>8393</v>
+      </c>
+      <c r="O63">
+        <v>18795</v>
+      </c>
+      <c r="P63">
+        <v>8590</v>
+      </c>
+      <c r="Q63">
+        <v>-1667</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>20842</v>
+      </c>
+      <c r="U63">
+        <v>3334</v>
+      </c>
+      <c r="V63">
+        <v>-93</v>
+      </c>
+      <c r="W63">
+        <v>-385</v>
+      </c>
+      <c r="X63">
+        <v>-1432</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>446</v>
+      </c>
+      <c r="AA63">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>615</v>
+      </c>
+      <c r="D64">
+        <v>5333</v>
+      </c>
+      <c r="E64">
+        <v>3567</v>
+      </c>
+      <c r="F64">
+        <v>3046</v>
+      </c>
+      <c r="G64">
+        <v>12988</v>
+      </c>
+      <c r="H64">
+        <v>39831</v>
+      </c>
+      <c r="I64">
+        <v>1153</v>
+      </c>
+      <c r="J64">
+        <v>6016</v>
+      </c>
+      <c r="K64">
+        <v>2376</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>8673</v>
+      </c>
+      <c r="O64">
+        <v>19036</v>
+      </c>
+      <c r="P64">
+        <v>8912</v>
+      </c>
+      <c r="Q64">
+        <v>-756</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>20795</v>
+      </c>
+      <c r="U64">
+        <v>2578</v>
+      </c>
+      <c r="V64">
+        <v>909</v>
+      </c>
+      <c r="W64">
+        <v>-384</v>
+      </c>
+      <c r="X64">
+        <v>-179</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-1246</v>
+      </c>
+      <c r="AA64">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>-329</v>
+      </c>
+      <c r="D65">
+        <v>5302</v>
+      </c>
+      <c r="E65">
+        <v>3320</v>
+      </c>
+      <c r="F65">
+        <v>3017</v>
+      </c>
+      <c r="G65">
+        <v>12978</v>
+      </c>
+      <c r="H65">
+        <v>39497</v>
+      </c>
+      <c r="I65">
+        <v>1051</v>
+      </c>
+      <c r="J65">
+        <v>5975</v>
+      </c>
+      <c r="K65">
+        <v>2009</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>8321</v>
+      </c>
+      <c r="O65">
+        <v>18601</v>
+      </c>
+      <c r="P65">
+        <v>8510</v>
+      </c>
+      <c r="Q65">
+        <v>-78</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>20896</v>
+      </c>
+      <c r="U65">
+        <v>2500</v>
+      </c>
+      <c r="V65">
+        <v>1217</v>
+      </c>
+      <c r="W65">
+        <v>-384</v>
+      </c>
+      <c r="X65">
+        <v>-746</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-182</v>
+      </c>
+      <c r="AA65">
+        <v>-329</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>798</v>
+      </c>
+      <c r="D66">
+        <v>5333</v>
+      </c>
+      <c r="E66">
+        <v>3248</v>
+      </c>
+      <c r="F66">
+        <v>3030</v>
+      </c>
+      <c r="G66">
+        <v>26776</v>
+      </c>
+      <c r="H66">
+        <v>52666</v>
+      </c>
+      <c r="I66">
+        <v>1178</v>
+      </c>
+      <c r="J66">
+        <v>20681</v>
+      </c>
+      <c r="K66">
+        <v>868</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>6660</v>
+      </c>
+      <c r="O66">
+        <v>31949</v>
+      </c>
+      <c r="P66">
+        <v>22006</v>
+      </c>
+      <c r="Q66">
+        <v>16120</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>75000</v>
+      </c>
+      <c r="T66">
+        <v>20717</v>
+      </c>
+      <c r="U66">
+        <v>18620</v>
+      </c>
+      <c r="V66">
+        <v>1170</v>
+      </c>
+      <c r="W66">
+        <v>-386</v>
+      </c>
+      <c r="X66">
+        <v>13504</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>1868</v>
+      </c>
+      <c r="AA66">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>419</v>
+      </c>
+      <c r="D67">
+        <v>6335</v>
+      </c>
+      <c r="E67">
+        <v>4510</v>
+      </c>
+      <c r="F67">
+        <v>4095</v>
+      </c>
+      <c r="G67">
+        <v>19329</v>
+      </c>
+      <c r="H67">
+        <v>70887</v>
+      </c>
+      <c r="I67">
+        <v>1481</v>
+      </c>
+      <c r="J67">
+        <v>23856</v>
+      </c>
+      <c r="K67">
+        <v>207</v>
+      </c>
+      <c r="L67">
+        <v>-1455</v>
+      </c>
+      <c r="M67">
+        <v>-2505</v>
+      </c>
+      <c r="N67">
+        <v>6646</v>
+      </c>
+      <c r="O67">
+        <v>39340</v>
+      </c>
+      <c r="P67">
+        <v>24066</v>
+      </c>
+      <c r="Q67">
+        <v>-9914</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>31547</v>
+      </c>
+      <c r="U67">
+        <v>8706</v>
+      </c>
+      <c r="V67">
+        <v>574</v>
+      </c>
+      <c r="W67">
+        <v>-460</v>
+      </c>
+      <c r="X67">
+        <v>-4399</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-15</v>
+      </c>
+      <c r="AA67">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>283</v>
+      </c>
+      <c r="D68">
+        <v>6637</v>
+      </c>
+      <c r="E68">
+        <v>4633</v>
+      </c>
+      <c r="F68">
+        <v>3448</v>
+      </c>
+      <c r="G68">
+        <v>19983</v>
+      </c>
+      <c r="H68">
+        <v>71151</v>
+      </c>
+      <c r="I68">
+        <v>1667</v>
+      </c>
+      <c r="J68">
+        <v>23869</v>
+      </c>
+      <c r="K68">
+        <v>218</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>6803</v>
+      </c>
+      <c r="O68">
+        <v>39363</v>
+      </c>
+      <c r="P68">
+        <v>24090</v>
+      </c>
+      <c r="Q68">
+        <v>969</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>31788</v>
+      </c>
+      <c r="U68">
+        <v>9675</v>
+      </c>
+      <c r="V68">
+        <v>1351</v>
+      </c>
+      <c r="W68">
+        <v>-462</v>
+      </c>
+      <c r="X68">
+        <v>-384</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-13</v>
+      </c>
+      <c r="AA68">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>603</v>
+      </c>
+      <c r="D69">
+        <v>6829</v>
+      </c>
+      <c r="E69">
+        <v>4800</v>
+      </c>
+      <c r="F69">
+        <v>3953</v>
+      </c>
+      <c r="G69">
+        <v>21377</v>
+      </c>
+      <c r="H69">
+        <v>72248</v>
+      </c>
+      <c r="I69">
+        <v>1858</v>
+      </c>
+      <c r="J69">
+        <v>23363</v>
+      </c>
+      <c r="K69">
+        <v>211</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>7935</v>
+      </c>
+      <c r="O69">
+        <v>40030</v>
+      </c>
+      <c r="P69">
+        <v>24078</v>
+      </c>
+      <c r="Q69">
+        <v>1337</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>32218</v>
+      </c>
+      <c r="U69">
+        <v>11012</v>
+      </c>
+      <c r="V69">
+        <v>2005</v>
+      </c>
+      <c r="W69">
+        <v>-463</v>
+      </c>
+      <c r="X69">
+        <v>-386</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-70</v>
+      </c>
+      <c r="AA69">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-828</v>
+      </c>
+      <c r="D70">
+        <v>7589</v>
+      </c>
+      <c r="E70">
+        <v>5249</v>
+      </c>
+      <c r="F70">
+        <v>4386</v>
+      </c>
+      <c r="G70">
+        <v>20147</v>
+      </c>
+      <c r="H70">
+        <v>76250</v>
+      </c>
+      <c r="I70">
+        <v>2402</v>
+      </c>
+      <c r="J70">
+        <v>27210</v>
+      </c>
+      <c r="K70">
+        <v>206</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>8912</v>
+      </c>
+      <c r="O70">
+        <v>45152</v>
+      </c>
+      <c r="P70">
+        <v>27924</v>
+      </c>
+      <c r="Q70">
+        <v>-1605</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>99000</v>
+      </c>
+      <c r="T70">
+        <v>31098</v>
+      </c>
+      <c r="U70">
+        <v>9407</v>
+      </c>
+      <c r="V70">
+        <v>1640</v>
+      </c>
+      <c r="W70">
+        <v>-464</v>
+      </c>
+      <c r="X70">
+        <v>-112</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>17</v>
+      </c>
+      <c r="AA70">
+        <v>-828</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>418</v>
+      </c>
+      <c r="D71">
+        <v>7390</v>
+      </c>
+      <c r="E71">
+        <v>5356</v>
+      </c>
+      <c r="F71">
+        <v>4323</v>
+      </c>
+      <c r="G71">
+        <v>14964</v>
+      </c>
+      <c r="H71">
+        <v>70908</v>
+      </c>
+      <c r="I71">
+        <v>2476</v>
+      </c>
+      <c r="J71">
+        <v>21353</v>
+      </c>
+      <c r="K71">
+        <v>230</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-5979</v>
+      </c>
+      <c r="N71">
+        <v>9010</v>
+      </c>
+      <c r="O71">
+        <v>39307</v>
+      </c>
+      <c r="P71">
+        <v>22090</v>
+      </c>
+      <c r="Q71">
+        <v>-5550</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>31601</v>
+      </c>
+      <c r="U71">
+        <v>3857</v>
+      </c>
+      <c r="V71">
+        <v>1108</v>
+      </c>
+      <c r="W71">
+        <v>-491</v>
+      </c>
+      <c r="X71">
+        <v>-6455</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-5</v>
+      </c>
+      <c r="AA71">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>733</v>
+      </c>
+      <c r="D72">
+        <v>7767</v>
+      </c>
+      <c r="E72">
+        <v>5192</v>
+      </c>
+      <c r="F72">
+        <v>4485</v>
+      </c>
+      <c r="G72">
+        <v>14122</v>
+      </c>
+      <c r="H72">
+        <v>68415</v>
+      </c>
+      <c r="I72">
+        <v>2503</v>
+      </c>
+      <c r="J72">
+        <v>20053</v>
+      </c>
+      <c r="K72">
+        <v>341</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>8951</v>
+      </c>
+      <c r="O72">
+        <v>37641</v>
+      </c>
+      <c r="P72">
+        <v>20900</v>
+      </c>
+      <c r="Q72">
+        <v>-792</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>30774</v>
+      </c>
+      <c r="U72">
+        <v>3065</v>
+      </c>
+      <c r="V72">
+        <v>1244</v>
+      </c>
+      <c r="W72">
+        <v>-494</v>
+      </c>
+      <c r="X72">
+        <v>-1631</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-37</v>
+      </c>
+      <c r="AA72">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>563</v>
+      </c>
+      <c r="D73">
+        <v>7656</v>
+      </c>
+      <c r="E73">
+        <v>5271</v>
+      </c>
+      <c r="F73">
+        <v>4490</v>
+      </c>
+      <c r="G73">
+        <v>18196</v>
+      </c>
+      <c r="H73">
+        <v>71637</v>
+      </c>
+      <c r="I73">
+        <v>2730</v>
+      </c>
+      <c r="J73">
+        <v>19556</v>
+      </c>
+      <c r="K73">
+        <v>211</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>12776</v>
+      </c>
+      <c r="O73">
+        <v>40739</v>
+      </c>
+      <c r="P73">
+        <v>23830</v>
+      </c>
+      <c r="Q73">
+        <v>4304</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>30898</v>
+      </c>
+      <c r="U73">
+        <v>7369</v>
+      </c>
+      <c r="V73">
+        <v>2183</v>
+      </c>
+      <c r="W73">
+        <v>-494</v>
+      </c>
+      <c r="X73">
+        <v>2471</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>19</v>
+      </c>
+      <c r="AA73">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>654</v>
+      </c>
+      <c r="D74">
+        <v>7765</v>
+      </c>
+      <c r="E74">
+        <v>5182</v>
+      </c>
+      <c r="F74">
+        <v>4621</v>
+      </c>
+      <c r="G74">
+        <v>14632</v>
+      </c>
+      <c r="H74">
+        <v>67173</v>
+      </c>
+      <c r="I74">
+        <v>2975</v>
+      </c>
+      <c r="J74">
+        <v>19359</v>
+      </c>
+      <c r="K74">
+        <v>200</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>9012</v>
+      </c>
+      <c r="O74">
+        <v>36451</v>
+      </c>
+      <c r="P74">
+        <v>19566</v>
+      </c>
+      <c r="Q74">
+        <v>-3525</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>103000</v>
+      </c>
+      <c r="T74">
+        <v>30722</v>
+      </c>
+      <c r="U74">
+        <v>3844</v>
+      </c>
+      <c r="V74">
+        <v>1765</v>
+      </c>
+      <c r="W74">
+        <v>-495</v>
+      </c>
+      <c r="X74">
+        <v>-4776</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-35</v>
+      </c>
+      <c r="AA74">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>672</v>
+      </c>
+      <c r="D75">
+        <v>7535</v>
+      </c>
+      <c r="E75">
+        <v>5345</v>
+      </c>
+      <c r="F75">
+        <v>4375</v>
+      </c>
+      <c r="G75">
+        <v>14409</v>
+      </c>
+      <c r="H75">
+        <v>67610</v>
+      </c>
+      <c r="I75">
+        <v>3045</v>
+      </c>
+      <c r="J75">
+        <v>18902</v>
+      </c>
+      <c r="K75">
+        <v>201</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-500</v>
+      </c>
+      <c r="N75">
+        <v>9113</v>
+      </c>
+      <c r="O75">
+        <v>36481</v>
+      </c>
+      <c r="P75">
+        <v>19962</v>
+      </c>
+      <c r="Q75">
+        <v>-822</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>31129</v>
+      </c>
+      <c r="U75">
+        <v>3022</v>
+      </c>
+      <c r="V75">
+        <v>712</v>
+      </c>
+      <c r="W75">
+        <v>-565</v>
+      </c>
+      <c r="X75">
+        <v>-1142</v>
+      </c>
+      <c r="Y75">
+        <v>655</v>
+      </c>
+      <c r="Z75">
+        <v>2</v>
+      </c>
+      <c r="AA75">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>1006</v>
+      </c>
+      <c r="D76">
+        <v>7979</v>
+      </c>
+      <c r="E76">
+        <v>5548</v>
+      </c>
+      <c r="F76">
+        <v>4700</v>
+      </c>
+      <c r="G76">
+        <v>15195</v>
+      </c>
+      <c r="H76">
+        <v>68427</v>
+      </c>
+      <c r="I76">
+        <v>3222</v>
+      </c>
+      <c r="J76">
+        <v>18982</v>
+      </c>
+      <c r="K76">
+        <v>204</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>9062</v>
+      </c>
+      <c r="O76">
+        <v>36533</v>
+      </c>
+      <c r="P76">
+        <v>20067</v>
+      </c>
+      <c r="Q76">
+        <v>115</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>31894</v>
+      </c>
+      <c r="U76">
+        <v>3137</v>
+      </c>
+      <c r="V76">
+        <v>1060</v>
+      </c>
+      <c r="W76">
+        <v>-568</v>
+      </c>
+      <c r="X76">
+        <v>-449</v>
+      </c>
+      <c r="Y76">
+        <v>670</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>960</v>
+      </c>
+      <c r="D77">
+        <v>8076</v>
+      </c>
+      <c r="E77">
+        <v>5450</v>
+      </c>
+      <c r="F77">
+        <v>4718</v>
+      </c>
+      <c r="G77">
+        <v>16119</v>
+      </c>
+      <c r="H77">
+        <v>68539</v>
+      </c>
+      <c r="I77">
+        <v>3029</v>
+      </c>
+      <c r="J77">
+        <v>17639</v>
+      </c>
+      <c r="K77">
+        <v>204</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>10491</v>
+      </c>
+      <c r="O77">
+        <v>36520</v>
+      </c>
+      <c r="P77">
+        <v>20001</v>
+      </c>
+      <c r="Q77">
+        <v>954</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>32019</v>
+      </c>
+      <c r="U77">
+        <v>4091</v>
+      </c>
+      <c r="V77">
+        <v>1948</v>
+      </c>
+      <c r="W77">
+        <v>-569</v>
+      </c>
+      <c r="X77">
+        <v>-513</v>
+      </c>
+      <c r="Y77">
+        <v>702</v>
+      </c>
+      <c r="Z77">
+        <v>-24</v>
+      </c>
+      <c r="AA77">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>1049</v>
+      </c>
+      <c r="D78">
+        <v>8314</v>
+      </c>
+      <c r="E78">
+        <v>5425</v>
+      </c>
+      <c r="F78">
+        <v>4896</v>
+      </c>
+      <c r="G78">
+        <v>15667</v>
+      </c>
+      <c r="H78">
+        <v>67887</v>
+      </c>
+      <c r="I78">
+        <v>3252</v>
+      </c>
+      <c r="J78">
+        <v>16661</v>
+      </c>
+      <c r="K78">
+        <v>201</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>10863</v>
+      </c>
+      <c r="O78">
+        <v>36586</v>
+      </c>
+      <c r="P78">
+        <v>19099</v>
+      </c>
+      <c r="Q78">
+        <v>-231</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>107000</v>
+      </c>
+      <c r="T78">
+        <v>31301</v>
+      </c>
+      <c r="U78">
+        <v>3860</v>
+      </c>
+      <c r="V78">
+        <v>2416</v>
+      </c>
+      <c r="W78">
+        <v>-568</v>
+      </c>
+      <c r="X78">
+        <v>-2185</v>
+      </c>
+      <c r="Y78">
+        <v>755</v>
+      </c>
+      <c r="Z78">
+        <v>-60</v>
+      </c>
+      <c r="AA78">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>564</v>
+      </c>
+      <c r="D79">
+        <v>7726</v>
+      </c>
+      <c r="E79">
+        <v>5292</v>
+      </c>
+      <c r="F79">
+        <v>4449</v>
+      </c>
+      <c r="G79">
+        <v>15498</v>
+      </c>
+      <c r="H79">
+        <v>66777</v>
+      </c>
+      <c r="I79">
+        <v>3181</v>
+      </c>
+      <c r="J79">
+        <v>16804</v>
+      </c>
+      <c r="K79">
+        <v>204</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-1</v>
+      </c>
+      <c r="N79">
+        <v>10808</v>
+      </c>
+      <c r="O79">
+        <v>36350</v>
+      </c>
+      <c r="P79">
+        <v>18272</v>
+      </c>
+      <c r="Q79">
+        <v>-483</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>30427</v>
+      </c>
+      <c r="U79">
+        <v>3377</v>
+      </c>
+      <c r="V79">
+        <v>715</v>
+      </c>
+      <c r="W79">
+        <v>-638</v>
+      </c>
+      <c r="X79">
+        <v>-735</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>-36</v>
+      </c>
+      <c r="AA79">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>537</v>
+      </c>
+      <c r="D80">
+        <v>7328</v>
+      </c>
+      <c r="E80">
+        <v>5140</v>
+      </c>
+      <c r="F80">
+        <v>4065</v>
+      </c>
+      <c r="G80">
+        <v>17221</v>
+      </c>
+      <c r="H80">
+        <v>68776</v>
+      </c>
+      <c r="I80">
+        <v>3335</v>
+      </c>
+      <c r="J80">
+        <v>18184</v>
+      </c>
+      <c r="K80">
+        <v>205</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>10959</v>
+      </c>
+      <c r="O80">
+        <v>37978</v>
+      </c>
+      <c r="P80">
+        <v>19679</v>
+      </c>
+      <c r="Q80">
+        <v>1386</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>30798</v>
+      </c>
+      <c r="U80">
+        <v>4763</v>
+      </c>
+      <c r="V80">
+        <v>1322</v>
+      </c>
+      <c r="W80">
+        <v>-642</v>
+      </c>
+      <c r="X80">
+        <v>658</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>4</v>
+      </c>
+      <c r="AA80">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>1232</v>
+      </c>
+      <c r="D81">
+        <v>8853</v>
+      </c>
+      <c r="E81">
+        <v>5649</v>
+      </c>
+      <c r="F81">
+        <v>4887</v>
+      </c>
+      <c r="G81">
+        <v>17390</v>
+      </c>
+      <c r="H81">
+        <v>69043</v>
+      </c>
+      <c r="I81">
+        <v>3189</v>
+      </c>
+      <c r="J81">
+        <v>18349</v>
+      </c>
+      <c r="K81">
+        <v>208</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>10257</v>
+      </c>
+      <c r="O81">
+        <v>37448</v>
+      </c>
+      <c r="P81">
+        <v>18563</v>
+      </c>
+      <c r="Q81">
+        <v>-283</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>31595</v>
+      </c>
+      <c r="U81">
+        <v>4480</v>
+      </c>
+      <c r="V81">
+        <v>2066</v>
+      </c>
+      <c r="W81">
+        <v>-639</v>
+      </c>
+      <c r="X81">
+        <v>-1915</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>17</v>
+      </c>
+      <c r="AA81">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>2162</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>10701</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>6414</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>6207</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>20441</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>72548</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>3946</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>18527</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>213</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>11907</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>39545</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>19890</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>2358</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>109000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>33003</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>6838</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>3798</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-641</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-787</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>902</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-58</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>2162</v>
       </c>
     </row>
